--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52DED6F-03E4-4EF1-8E5F-CF00D3A0E90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414229C4-C5DA-475C-B6C8-C94453CC88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <definedName name="\T">#REF!</definedName>
     <definedName name="\V">#REF!</definedName>
     <definedName name="\W">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fact CPGNA'!$B$2:$K$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fact CPGNA'!$B$2:$K$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">factura!$E$10:$L$53</definedName>
     <definedName name="AREPORTE_DIARI">#REF!</definedName>
     <definedName name="AREPORTE1">#REF!</definedName>
@@ -154,29 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve">(*) Tipo de Cambio: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Según cotización de oferta y demanda publicada en el Diario Oficial El Peruano, es el tipo de cambio </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>venta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">promedio en Soles por Dólar de los Estados Unidos de América, del mes inmediatamente anterior a la fecha </t>
@@ -755,6 +732,29 @@
   <si>
     <t>{{Vglp}}</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Según cotización de oferta y demanda publicada en el Diario Oficial El Peruano, es el tipo de cambio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>venta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +779,7 @@
     <numFmt numFmtId="179" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="180" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="74">
+  <fonts count="73">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -882,11 +882,6 @@
       <name val="Arial MT"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -896,13 +891,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -991,12 +979,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -1261,6 +1243,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1474,7 +1468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1590,17 +1584,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1797,92 +1780,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="173" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1947,7 +1969,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="180" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0"/>
@@ -1966,9 +1988,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1987,9 +2009,9 @@
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -2001,8 +2023,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2034,10 +2056,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2058,7 +2080,7 @@
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2108,7 +2130,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2127,10 +2149,10 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2142,10 +2164,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="70" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2166,14 +2188,13 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2183,93 +2204,90 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="32"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="32" applyFill="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="32" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="32" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="32" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2279,82 +2297,71 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="10" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2370,62 +2377,53 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2434,13 +2432,13 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2452,26 +2450,51 @@
     <xf numFmtId="171" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="357">
@@ -2859,13 +2882,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>40</xdr:row>
+          <xdr:row>36</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>44</xdr:row>
+          <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3320,10 +3343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:X103"/>
+  <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3338,853 +3361,825 @@
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24">
-      <c r="N2" s="97"/>
-    </row>
-    <row r="3" spans="3:24">
-      <c r="C3" s="143" t="s">
+    <row r="2" spans="3:18">
+      <c r="N2" s="90"/>
+    </row>
+    <row r="3" spans="3:18">
+      <c r="C3" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="N3" s="88"/>
+    </row>
+    <row r="4" spans="3:18">
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="N4" s="89"/>
+    </row>
+    <row r="5" spans="3:18">
+      <c r="E5" s="18"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="83"/>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="M6" s="82"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="83"/>
+    </row>
+    <row r="7" spans="3:18">
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="82"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="83"/>
+    </row>
+    <row r="8" spans="3:18" ht="12.75" customHeight="1">
+      <c r="G8" s="91"/>
+      <c r="I8" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="137"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="83"/>
+    </row>
+    <row r="9" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C9" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="134"/>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="54"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="7"/>
+      <c r="P9" s="83"/>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C10" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="54"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="83"/>
+      <c r="R10" s="63"/>
+    </row>
+    <row r="11" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C11" s="128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="71">
+        <v>1.9942</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="54"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="83"/>
+      <c r="R11" s="64"/>
+    </row>
+    <row r="12" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="54"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="83"/>
+      <c r="R12" s="64"/>
+    </row>
+    <row r="13" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="54"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="7"/>
+      <c r="P13" s="83"/>
+      <c r="R13" s="64"/>
+    </row>
+    <row r="14" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C14" s="92"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="91"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="54"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="7"/>
+      <c r="P14" s="83"/>
+      <c r="R14" s="64"/>
+    </row>
+    <row r="15" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C15" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="125" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="54"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="83"/>
+      <c r="R15" s="64"/>
+    </row>
+    <row r="16" spans="3:18" ht="13.5" customHeight="1">
+      <c r="E16" s="1"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="54"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="83"/>
+      <c r="R16" s="54"/>
+    </row>
+    <row r="17" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="N3" s="95"/>
-    </row>
-    <row r="4" spans="3:24">
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="N4" s="96"/>
-    </row>
-    <row r="5" spans="3:24">
-      <c r="E5" s="19"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="89"/>
-    </row>
-    <row r="6" spans="3:24">
-      <c r="M6" s="88"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="89"/>
-    </row>
-    <row r="7" spans="3:24">
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="89"/>
-    </row>
-    <row r="8" spans="3:24" ht="12.75" customHeight="1">
-      <c r="G8" s="98"/>
-      <c r="I8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="89"/>
-    </row>
-    <row r="9" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C9" s="141" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="117" t="s">
-        <v>142</v>
-      </c>
-      <c r="J9" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="K9" s="58"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="89"/>
-      <c r="R9" s="68"/>
-    </row>
-    <row r="10" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C10" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="58"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="8"/>
-      <c r="P10" s="89"/>
-      <c r="R10" s="68"/>
-    </row>
-    <row r="11" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C11" s="140" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="76">
-        <v>1.9942</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="58"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="8"/>
-      <c r="P11" s="89"/>
-      <c r="R11" s="69"/>
-    </row>
-    <row r="12" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="58"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="8"/>
-      <c r="P12" s="89"/>
-      <c r="R12" s="69"/>
-    </row>
-    <row r="13" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="58"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="8"/>
-      <c r="P13" s="89"/>
-      <c r="R13" s="69"/>
-    </row>
-    <row r="14" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C14" s="99"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="98"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="58"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="8"/>
-      <c r="P14" s="89"/>
-      <c r="R14" s="69"/>
-    </row>
-    <row r="15" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C15" s="100"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="98"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="58"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="8"/>
-      <c r="P15" s="89"/>
-      <c r="R15" s="69"/>
-      <c r="X15" s="87"/>
-    </row>
-    <row r="16" spans="3:24" ht="13.5" customHeight="1">
-      <c r="C16" s="100"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="98"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="58"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="8"/>
-      <c r="P16" s="89"/>
-      <c r="R16" s="69"/>
-    </row>
-    <row r="17" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="98"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="58"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="8"/>
-      <c r="P17" s="89"/>
-      <c r="R17" s="69"/>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="54"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="83"/>
+      <c r="R17" s="54"/>
     </row>
     <row r="18" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C18" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="137" t="s">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="54"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="83"/>
+      <c r="R18" s="54"/>
+    </row>
+    <row r="19" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="54"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="7"/>
+      <c r="P19" s="83"/>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="20" spans="3:18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="E20" s="1"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="54"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="7"/>
+      <c r="P20" s="83"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="3:18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="C21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="98"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="58"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="8"/>
-      <c r="P18" s="89"/>
-      <c r="R18" s="69"/>
-    </row>
-    <row r="19" spans="3:18" ht="13.5" customHeight="1">
-      <c r="E19" s="1"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="58"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="8"/>
-      <c r="P19" s="89"/>
-      <c r="R19" s="58"/>
-    </row>
-    <row r="20" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="58"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="8"/>
-      <c r="P20" s="89"/>
-      <c r="R20" s="58"/>
-    </row>
-    <row r="21" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="114" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="58"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="8"/>
-      <c r="P21" s="89"/>
-      <c r="R21" s="58"/>
+      <c r="F21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="129"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="54"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="7"/>
+      <c r="P21" s="83"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="58"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="8"/>
-      <c r="P22" s="89"/>
-      <c r="R22" s="58"/>
-    </row>
-    <row r="23" spans="3:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="E23" s="1"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="58"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="8"/>
-      <c r="P23" s="89"/>
-      <c r="R23" s="58"/>
-    </row>
-    <row r="24" spans="3:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="116" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="54"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="83"/>
+      <c r="R22" s="54"/>
+    </row>
+    <row r="23" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="54"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="83"/>
+      <c r="R23" s="54"/>
+    </row>
+    <row r="24" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="3"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="54"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="83"/>
+      <c r="R24" s="54"/>
+    </row>
+    <row r="25" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="3"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="54"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="83"/>
+      <c r="R25" s="54"/>
+    </row>
+    <row r="26" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="3"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="54"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="83"/>
+      <c r="R26" s="54"/>
+    </row>
+    <row r="27" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="54"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="7"/>
+      <c r="P27" s="83"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="3:18" ht="13.5" customHeight="1">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="3"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="54"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="7"/>
+      <c r="P28" s="83"/>
+      <c r="R28" s="54"/>
+    </row>
+    <row r="29" spans="3:18" ht="13.5" customHeight="1">
+      <c r="K29" s="54"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="K30" s="54"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+    </row>
+    <row r="31" spans="3:18" ht="14.25">
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="62"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" s="140" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="52"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="122" t="str">
+        <f>+E21</f>
+        <v>{{PrefPeríodo}}</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="52"/>
+    </row>
+    <row r="43" spans="3:12" ht="15">
+      <c r="C43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="3:12" ht="15">
+      <c r="C44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="85"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" s="84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="G53" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="N54" s="70"/>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="G55" s="69"/>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" ht="18">
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="C64" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17">
+      <c r="C65" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17">
+      <c r="C66" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" ht="15">
+      <c r="C67" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" s="53"/>
+      <c r="Q67" s="53"/>
+    </row>
+    <row r="68" spans="3:17">
+      <c r="C68" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="3:17">
+      <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H70" s="81"/>
+      <c r="O70" s="13"/>
+    </row>
+    <row r="71" spans="3:17">
+      <c r="I71" s="13"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="3:17">
+      <c r="C72" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="73"/>
+      <c r="E72" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="3:17">
+      <c r="C73" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17">
+      <c r="C74" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="78"/>
+      <c r="E74" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17">
+      <c r="C77" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="73"/>
+      <c r="E77" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17">
+      <c r="C78" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="F78" s="76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17">
+      <c r="C79" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="102"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="58"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="8"/>
-      <c r="P24" s="89"/>
-      <c r="R24" s="58"/>
-    </row>
-    <row r="25" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="4"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="58"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="8"/>
-      <c r="P25" s="89"/>
-      <c r="R25" s="58"/>
-    </row>
-    <row r="26" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="4"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="58"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="8"/>
-      <c r="P26" s="89"/>
-      <c r="R26" s="58"/>
-    </row>
-    <row r="27" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="4"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="58"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="8"/>
-      <c r="P27" s="89"/>
-      <c r="R27" s="58"/>
-    </row>
-    <row r="28" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="4"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="58"/>
-      <c r="R28" s="58"/>
-    </row>
-    <row r="29" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="4"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="58"/>
-      <c r="R29" s="58"/>
-    </row>
-    <row r="30" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="4"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="58"/>
-      <c r="R30" s="58"/>
-    </row>
-    <row r="31" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="4"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-    </row>
-    <row r="32" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="4"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-    </row>
-    <row r="33" spans="3:18" ht="13.5" customHeight="1">
-      <c r="I33" s="122" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="58"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-    </row>
-    <row r="34" spans="3:18">
-      <c r="K34" s="58"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-    </row>
-    <row r="35" spans="3:18" ht="14.25">
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="66"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-    </row>
-    <row r="36" spans="3:18" ht="15">
-      <c r="C36" s="142" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-    </row>
-    <row r="37" spans="3:18" ht="15">
-      <c r="C37" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18" ht="15">
-      <c r="C38" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18">
-      <c r="C40" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18">
-      <c r="C42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="3:18">
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="56"/>
-    </row>
-    <row r="46" spans="3:18">
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="134" t="str">
-        <f>+E24</f>
-        <v>{{PrefPeríodo}}</v>
-      </c>
-      <c r="E46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="56"/>
-    </row>
-    <row r="47" spans="3:18" ht="15">
-      <c r="C47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="3:18" ht="15">
-      <c r="C48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14">
-      <c r="C50" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="91"/>
-    </row>
-    <row r="52" spans="3:14">
-      <c r="C52" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14">
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14">
-      <c r="C55" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="134" t="s">
-        <v>158</v>
-      </c>
-      <c r="E55" s="90" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14">
-      <c r="C56" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14">
-      <c r="G57" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-    </row>
-    <row r="58" spans="3:14">
-      <c r="C58" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="N58" s="75"/>
-    </row>
-    <row r="59" spans="3:14">
-      <c r="G59" s="74"/>
-    </row>
-    <row r="60" spans="3:14">
-      <c r="C60" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D60" s="133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14">
-      <c r="C62" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14">
-      <c r="C63" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="3:17" ht="18">
-      <c r="C65" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="3:17">
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="3:17">
-      <c r="C67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="3:17">
-      <c r="C68" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="132" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="3:17">
-      <c r="C69" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D69" s="129" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="90" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="3:17">
-      <c r="C70" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" s="131" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="90" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="3:17" ht="15">
-      <c r="C71" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="130" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" t="s">
-        <v>49</v>
-      </c>
-      <c r="O71" s="57"/>
-      <c r="Q71" s="57"/>
-    </row>
-    <row r="72" spans="3:17">
-      <c r="C72" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="3:17">
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" s="86"/>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="3:17">
-      <c r="I75" s="14"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="3:17">
-      <c r="C76" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="126" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="I76" s="14"/>
-      <c r="O76" s="14"/>
-    </row>
-    <row r="77" spans="3:17">
-      <c r="C77" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="127" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77" s="81" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="3:17">
-      <c r="C78" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="83"/>
-      <c r="E78" s="125" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" s="84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13">
-      <c r="C81" s="77" t="s">
+      <c r="F79" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="124" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81" s="79" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="82" spans="2:13">
-      <c r="C82" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="F82" s="81" t="s">
-        <v>58</v>
-      </c>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="C83" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="84" t="s">
-        <v>58</v>
-      </c>
+      <c r="E83" s="13"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="2:13">
+      <c r="C84" s="3"/>
+      <c r="D84" s="57"/>
+      <c r="F84" s="58"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+    </row>
+    <row r="85" spans="2:13">
+      <c r="C85" s="84"/>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
     </row>
     <row r="86" spans="2:13">
-      <c r="C86" s="4"/>
+      <c r="C86" s="84"/>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
     </row>
     <row r="87" spans="2:13">
-      <c r="E87" s="14"/>
-      <c r="G87" s="7"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" spans="2:13">
-      <c r="C88" s="4"/>
-      <c r="D88" s="61"/>
-      <c r="F88" s="62"/>
-      <c r="L88" s="76"/>
-      <c r="M88" s="76"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="8"/>
     </row>
     <row r="89" spans="2:13">
-      <c r="C89" s="90"/>
-      <c r="L89" s="76"/>
-      <c r="M89" s="76"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="60"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="C90" s="90"/>
-      <c r="L90" s="76"/>
-      <c r="M90" s="76"/>
+      <c r="D90" s="53"/>
     </row>
     <row r="91" spans="2:13">
-      <c r="C91" s="63"/>
-      <c r="D91" s="9"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:13">
-      <c r="C92" s="63"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="107"/>
     </row>
     <row r="93" spans="2:13">
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-    </row>
-    <row r="94" spans="2:13">
-      <c r="D94" s="57"/>
-    </row>
-    <row r="95" spans="2:13">
-      <c r="C95" s="4"/>
+      <c r="C93" s="107"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="119"/>
-      <c r="C96" s="121"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="119"/>
+      <c r="H96" s="84"/>
     </row>
     <row r="97" spans="3:8">
-      <c r="C97" s="119"/>
-    </row>
-    <row r="100" spans="3:8">
-      <c r="H100" s="90"/>
-    </row>
-    <row r="101" spans="3:8">
-      <c r="G101" s="90"/>
-      <c r="H101" s="90"/>
-    </row>
-    <row r="102" spans="3:8">
-      <c r="C102" s="90"/>
-      <c r="D102" s="107"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
-    </row>
-    <row r="103" spans="3:8">
-      <c r="C103" s="72"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="90"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="84"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="84"/>
+      <c r="G98" s="84"/>
+    </row>
+    <row r="99" spans="3:8">
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C36:J36"/>
     <mergeCell ref="C3:H4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C32:H32"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4197,13 +4192,13 @@
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>40</xdr:row>
+                <xdr:row>36</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>44</xdr:row>
+                <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -4239,1545 +4234,1545 @@
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="21" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:11" ht="9" customHeight="1"/>
     <row r="8" spans="4:11" ht="10.5" customHeight="1">
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="4:11" ht="10.5" customHeight="1"/>
     <row r="10" spans="4:11" ht="13.5" customHeight="1"/>
     <row r="11" spans="4:11" ht="15.75" customHeight="1">
-      <c r="K11" s="26" t="s">
-        <v>62</v>
+      <c r="K11" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="4:11" ht="23.25" customHeight="1">
       <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="24.75" customHeight="1">
+      <c r="D13" s="23"/>
+      <c r="E13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="4:11" ht="24.75" customHeight="1">
-      <c r="D13" s="27"/>
-      <c r="E13" s="1" t="s">
+      <c r="G13" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="4.5" customHeight="1"/>
     <row r="15" spans="4:11" ht="15.75" customHeight="1">
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="4:11" ht="25.5" customHeight="1"/>
     <row r="17" spans="5:15" ht="27" customHeight="1">
-      <c r="J17" s="144" t="s">
+      <c r="J17" s="138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="138"/>
+      <c r="L17" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="144"/>
-      <c r="L17" s="28" t="s">
+    </row>
+    <row r="18" spans="5:15">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="5:15">
+      <c r="E19" s="65" t="str">
+        <f>+'Fact CPGNA'!D67</f>
+        <v>{{Vtotal}}</v>
+      </c>
+      <c r="F19" s="84" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="5:15">
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" s="70" t="str">
-        <f>+'Fact CPGNA'!D71</f>
-        <v>{{Vtotal}}</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="145" t="str">
-        <f>+'Fact CPGNA'!E72</f>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="139" t="str">
+        <f>+'Fact CPGNA'!E68</f>
         <v>{{CmPrecioPsec}}</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="L19" s="108" t="e">
+      <c r="K19" s="139"/>
+      <c r="L19" s="99" t="e">
         <f>ROUND(+E19*J19,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="5:15">
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="5:15">
-      <c r="E21" s="31"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="108"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="99"/>
     </row>
     <row r="22" spans="5:15">
-      <c r="E22" s="29"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="30"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="5:15">
-      <c r="E23" s="29"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="30"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="5:15">
-      <c r="E24" s="29"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="30"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="5:15">
-      <c r="E25" s="29"/>
-      <c r="F25" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="5:15" ht="22.5" customHeight="1">
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="26"/>
     </row>
     <row r="27" spans="5:15">
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="30"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="26"/>
     </row>
     <row r="28" spans="5:15">
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="30"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="26"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="5:15">
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="30"/>
-      <c r="N29" s="8"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="26"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" spans="5:15">
-      <c r="E30" s="31"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="109"/>
-      <c r="N30" s="8"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="100"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" spans="5:15" ht="20.25" customHeight="1">
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="30"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="32" spans="5:15">
-      <c r="G32" s="29"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="30"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="5:12">
-      <c r="G33" s="29"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="30"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="5:12">
-      <c r="G34" s="29"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="30"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="26"/>
     </row>
     <row r="35" spans="5:12">
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="30"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" spans="5:12">
-      <c r="G36" s="29"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="30"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="5:12">
-      <c r="G37" s="29"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="30"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="5:12">
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="30"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="26"/>
     </row>
     <row r="39" spans="5:12">
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="K39" s="43"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="5:12">
-      <c r="K40" s="43"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="5:12">
-      <c r="K41" s="43"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="5:12">
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="K42" s="43"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="5:12">
-      <c r="K43" s="43"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="5:12">
-      <c r="E44" s="90" t="e">
+      <c r="E44" s="84" t="e">
         <f>+P58</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K44" s="43"/>
+      <c r="K44" s="39"/>
     </row>
     <row r="45" spans="5:12">
-      <c r="K45" s="43"/>
+      <c r="K45" s="39"/>
     </row>
     <row r="46" spans="5:12" ht="15" customHeight="1">
-      <c r="K46" s="43"/>
+      <c r="K46" s="39"/>
     </row>
     <row r="47" spans="5:12" ht="16.5" customHeight="1">
-      <c r="E47" s="44"/>
-      <c r="K47" s="43"/>
+      <c r="E47" s="40"/>
+      <c r="K47" s="39"/>
     </row>
     <row r="48" spans="5:12">
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="L48" s="30"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="L48" s="26"/>
     </row>
     <row r="49" spans="3:21" ht="11.25" customHeight="1">
-      <c r="C49" s="44"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="30"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="26"/>
     </row>
     <row r="50" spans="3:21" ht="19.5" customHeight="1">
-      <c r="K50" s="43"/>
-      <c r="L50" s="108" t="e">
+      <c r="K50" s="39"/>
+      <c r="L50" s="99" t="e">
         <f>SUM(L19:L28)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="3:21" ht="25.5" customHeight="1">
-      <c r="K51" s="43"/>
-      <c r="L51" s="46"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="42"/>
     </row>
     <row r="52" spans="3:21" ht="24" customHeight="1">
-      <c r="K52" s="110">
+      <c r="K52" s="101">
         <v>0.18</v>
       </c>
-      <c r="L52" s="108" t="e">
+      <c r="L52" s="99" t="e">
         <f>+ROUND((L50+L51)*0.18,2)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="3:21" ht="26.25" customHeight="1">
-      <c r="K53" s="43"/>
-      <c r="L53" s="108" t="e">
+      <c r="K53" s="39"/>
+      <c r="L53" s="99" t="e">
         <f>SUM(L50:L52)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="3:21">
-      <c r="K54" s="43"/>
+      <c r="K54" s="39"/>
     </row>
     <row r="55" spans="3:21">
-      <c r="K55" s="43"/>
+      <c r="K55" s="39"/>
     </row>
     <row r="56" spans="3:21" ht="15.75">
-      <c r="K56" s="43"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="P56" s="49" t="e">
+      <c r="K56" s="39"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" s="45" t="e">
         <f>+L53</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
     </row>
     <row r="57" spans="3:21">
-      <c r="K57" s="43"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
+      <c r="K57" s="39"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
     </row>
     <row r="58" spans="3:21">
-      <c r="K58" s="43"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="P58" s="51" t="e">
+      <c r="K58" s="39"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" s="47" t="e">
         <f>IF(P60&lt;1,CONCATENATE("Son : "," Cero ","con ",U62,"Nuevos Soles "),CONCATENATE("Son : ",R64," ",R70," ",R72," ",R78," ",R80," ","con ",U62,"Dólares Americanos "))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q58" s="51"/>
-      <c r="R58" s="51"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="51"/>
-      <c r="U58" s="51"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
     </row>
     <row r="59" spans="3:21">
-      <c r="K59" s="43"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
+      <c r="K59" s="39"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
     </row>
     <row r="60" spans="3:21">
-      <c r="K60" s="43"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="P60" s="52" t="e">
+      <c r="K60" s="39"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" s="48" t="e">
         <f>+P56</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
     </row>
     <row r="61" spans="3:21">
-      <c r="K61" s="43"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="P61" s="52" t="e">
+      <c r="K61" s="39"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P61" s="48" t="e">
         <f>INT(P60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
     </row>
     <row r="62" spans="3:21">
-      <c r="K62" s="43"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="P62" s="52" t="e">
+      <c r="K62" s="39"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" s="48" t="e">
         <f>ROUND(P60-P61,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q62" s="47" t="e">
+      <c r="Q62" s="43" t="e">
         <f>+P62*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47" t="e">
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43" t="e">
         <f>IF(P62=0,CONCATENATE(" 00/100 ", T62),CONCATENATE(Q62,"/100 ", T62))</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="3:21">
-      <c r="K63" s="43"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47" t="e">
+      <c r="K63" s="39"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43" t="e">
         <f>ROUND(P61/1000000,6)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
     </row>
     <row r="64" spans="3:21">
-      <c r="K64" s="43"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="P64" s="47" t="e">
+      <c r="K64" s="39"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P64" s="43" t="e">
         <f>INT(P63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q64" s="53" t="e">
+      <c r="Q64" s="49" t="e">
         <f>LOOKUP(P64,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R64" s="54" t="e">
+      <c r="R64" s="50" t="e">
         <f>IF(P64&lt;1,"",IF(P64&gt;30,CONCATENATE(Q66," y ",Q67," Millones "),IF(P64=1,CONCATENATE(Q64," Millón "),CONCATENATE(Q64," Millones "))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
     </row>
     <row r="65" spans="11:21">
-      <c r="K65" s="43"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47" t="e">
+      <c r="K65" s="39"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43" t="e">
         <f>ROUND(P64/10,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
     </row>
     <row r="66" spans="11:21">
-      <c r="K66" s="43"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="P66" s="47" t="e">
+      <c r="K66" s="39"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" s="43" t="e">
         <f>(INT(P65))*10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q66" s="53" t="e">
+      <c r="Q66" s="49" t="e">
         <f>LOOKUP(P66,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
     </row>
     <row r="67" spans="11:21">
-      <c r="K67" s="43"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P67" s="47" t="e">
+      <c r="K67" s="39"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" s="43" t="e">
         <f>ROUND((P65-P66/10)*10,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q67" s="53" t="e">
+      <c r="Q67" s="49" t="e">
         <f>LOOKUP(P67,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
     </row>
     <row r="68" spans="11:21">
-      <c r="K68" s="43"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47" t="e">
+      <c r="K68" s="39"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43" t="e">
         <f>ROUND((P63-P64)*10,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
     </row>
     <row r="69" spans="11:21">
-      <c r="K69" s="43"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47" t="e">
+      <c r="K69" s="39"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43" t="e">
         <f>INT(P68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
     </row>
     <row r="70" spans="11:21">
-      <c r="K70" s="43"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="P70" s="47" t="e">
+      <c r="K70" s="39"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" s="43" t="e">
         <f>+P69*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q70" s="53" t="e">
+      <c r="Q70" s="49" t="e">
         <f>LOOKUP(P70,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R70" s="54" t="e">
+      <c r="R70" s="50" t="e">
         <f>IF(P69&lt;1,"",IF(AND(P70=100,P72&lt;1),CONCATENATE(" Cien Mil "),Q70))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
     </row>
     <row r="71" spans="11:21">
-      <c r="K71" s="43"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47" t="e">
+      <c r="K71" s="39"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43" t="e">
         <f>ROUND((P68-P69)*100,4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
     </row>
     <row r="72" spans="11:21">
-      <c r="K72" s="43"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="P72" s="47" t="e">
+      <c r="K72" s="39"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" s="43" t="e">
         <f>INT(P71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q72" s="53" t="e">
+      <c r="Q72" s="49" t="e">
         <f>LOOKUP(P72,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R72" s="54" t="e">
+      <c r="R72" s="50" t="e">
         <f>IF(P72&lt;1,"",IF(AND(P72&gt;30,P75&gt;0),CONCATENATE(Q74," y ",Q75," Mil "),CONCATENATE(Q72," Mil ")))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S72" s="47"/>
-      <c r="T72" s="47"/>
-      <c r="U72" s="47"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
     </row>
     <row r="73" spans="11:21">
-      <c r="K73" s="43"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="47" t="e">
+      <c r="K73" s="39"/>
+      <c r="N73" s="43"/>
+      <c r="O73" s="43"/>
+      <c r="P73" s="43" t="e">
         <f>ROUND(P72/10,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="47"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="47"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="43"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="43"/>
     </row>
     <row r="74" spans="11:21">
-      <c r="K74" s="43"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="P74" s="47" t="e">
+      <c r="K74" s="39"/>
+      <c r="N74" s="43"/>
+      <c r="O74" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" s="43" t="e">
         <f>(INT(P73))*10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q74" s="53" t="e">
+      <c r="Q74" s="49" t="e">
         <f>LOOKUP(P74,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
-      <c r="T74" s="47"/>
-      <c r="U74" s="47"/>
+      <c r="R74" s="43"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="43"/>
     </row>
     <row r="75" spans="11:21">
-      <c r="K75" s="43"/>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="P75" s="47" t="e">
+      <c r="K75" s="39"/>
+      <c r="N75" s="43"/>
+      <c r="O75" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" s="43" t="e">
         <f>ROUND((P73-P74/10)*10,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q75" s="53" t="e">
+      <c r="Q75" s="49" t="e">
         <f>LOOKUP(P75,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R75" s="47"/>
-      <c r="S75" s="47"/>
-      <c r="T75" s="47"/>
-      <c r="U75" s="47"/>
+      <c r="R75" s="43"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="43"/>
+      <c r="U75" s="43"/>
     </row>
     <row r="76" spans="11:21">
-      <c r="K76" s="43"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47" t="e">
+      <c r="K76" s="39"/>
+      <c r="N76" s="43"/>
+      <c r="O76" s="43"/>
+      <c r="P76" s="43" t="e">
         <f>ROUND((P71-P72)*10,2)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="47"/>
+      <c r="Q76" s="43"/>
+      <c r="R76" s="43"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="43"/>
+      <c r="U76" s="43"/>
     </row>
     <row r="77" spans="11:21">
-      <c r="K77" s="43"/>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="47" t="e">
+      <c r="K77" s="39"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43" t="e">
         <f>INT(P76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q77" s="47"/>
-      <c r="R77" s="47"/>
-      <c r="S77" s="47"/>
-      <c r="T77" s="47"/>
-      <c r="U77" s="47"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="43"/>
+      <c r="U77" s="43"/>
     </row>
     <row r="78" spans="11:21">
-      <c r="K78" s="43"/>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="P78" s="47" t="e">
+      <c r="K78" s="39"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" s="43" t="e">
         <f>+P77*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q78" s="53" t="e">
+      <c r="Q78" s="49" t="e">
         <f>LOOKUP(P78,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R78" s="54" t="e">
+      <c r="R78" s="50" t="e">
         <f>IF(P77&lt;1,"",IF(AND(P78=100,P80&lt;1),CONCATENATE(" Cien "),Q78))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S78" s="47"/>
-      <c r="T78" s="47"/>
-      <c r="U78" s="47"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="43"/>
+      <c r="U78" s="43"/>
     </row>
     <row r="79" spans="11:21">
-      <c r="K79" s="43"/>
-      <c r="N79" s="47"/>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47" t="e">
+      <c r="K79" s="39"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="43" t="e">
         <f>ROUND((P76-P77)*100,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
+      <c r="Q79" s="43"/>
+      <c r="R79" s="43"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="43"/>
+      <c r="U79" s="43"/>
     </row>
     <row r="80" spans="11:21">
-      <c r="K80" s="43"/>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="P80" s="47" t="e">
+      <c r="K80" s="39"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P80" s="43" t="e">
         <f>INT(P79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q80" s="53" t="e">
+      <c r="Q80" s="49" t="e">
         <f>LOOKUP(P80,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R80" s="53" t="e">
+      <c r="R80" s="49" t="e">
         <f>IF(P80&lt;1,"",IF(AND(P80&gt;30,P83&gt;0),CONCATENATE(Q82," y ",Q83),CONCATENATE(Q80)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S80" s="47"/>
-      <c r="T80" s="47"/>
-      <c r="U80" s="47"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
     </row>
     <row r="81" spans="11:21">
-      <c r="K81" s="43"/>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
-      <c r="P81" s="47" t="e">
+      <c r="K81" s="39"/>
+      <c r="N81" s="43"/>
+      <c r="O81" s="43"/>
+      <c r="P81" s="43" t="e">
         <f>ROUND(P80/10,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="47"/>
-      <c r="S81" s="47"/>
-      <c r="T81" s="47"/>
-      <c r="U81" s="47"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="43"/>
+      <c r="S81" s="43"/>
+      <c r="T81" s="43"/>
+      <c r="U81" s="43"/>
     </row>
     <row r="82" spans="11:21">
-      <c r="K82" s="43"/>
-      <c r="N82" s="47"/>
-      <c r="O82" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="P82" s="47" t="e">
+      <c r="K82" s="39"/>
+      <c r="N82" s="43"/>
+      <c r="O82" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="P82" s="43" t="e">
         <f>(INT(P81))*10</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q82" s="53" t="e">
+      <c r="Q82" s="49" t="e">
         <f>LOOKUP(P82,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R82" s="47"/>
-      <c r="S82" s="47"/>
-      <c r="T82" s="47"/>
-      <c r="U82" s="47"/>
+      <c r="R82" s="43"/>
+      <c r="S82" s="43"/>
+      <c r="T82" s="43"/>
+      <c r="U82" s="43"/>
     </row>
     <row r="83" spans="11:21">
-      <c r="K83" s="43"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="P83" s="47" t="e">
+      <c r="K83" s="39"/>
+      <c r="N83" s="43"/>
+      <c r="O83" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P83" s="43" t="e">
         <f>ROUND((P81-P82/10)*10,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q83" s="53" t="e">
+      <c r="Q83" s="49" t="e">
         <f>LOOKUP(P83,$N$86:$N$131,$O$86:$O$131)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
+      <c r="R83" s="43"/>
+      <c r="S83" s="43"/>
+      <c r="T83" s="43"/>
+      <c r="U83" s="43"/>
     </row>
     <row r="84" spans="11:21">
-      <c r="K84" s="43"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
+      <c r="K84" s="39"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
+      <c r="U84" s="43"/>
     </row>
     <row r="85" spans="11:21">
-      <c r="K85" s="43"/>
-      <c r="N85" s="47"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="47"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
+      <c r="K85" s="39"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
+      <c r="U85" s="43"/>
     </row>
     <row r="86" spans="11:21">
-      <c r="K86" s="43"/>
-      <c r="N86" s="47">
+      <c r="K86" s="39"/>
+      <c r="N86" s="43">
         <v>1</v>
       </c>
-      <c r="O86" s="71" t="s">
+      <c r="O86" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="43"/>
+      <c r="U86" s="43"/>
+    </row>
+    <row r="87" spans="11:21">
+      <c r="K87" s="39"/>
+      <c r="N87" s="43">
+        <v>2</v>
+      </c>
+      <c r="O87" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="P86" s="47"/>
-      <c r="Q86" s="47"/>
-      <c r="R86" s="47"/>
-      <c r="S86" s="47"/>
-      <c r="T86" s="47"/>
-      <c r="U86" s="47"/>
-    </row>
-    <row r="87" spans="11:21">
-      <c r="K87" s="43"/>
-      <c r="N87" s="47">
-        <v>2</v>
-      </c>
-      <c r="O87" s="47" t="s">
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="43"/>
+      <c r="U87" s="43"/>
+    </row>
+    <row r="88" spans="11:21">
+      <c r="K88" s="39"/>
+      <c r="N88" s="43">
+        <v>3</v>
+      </c>
+      <c r="O88" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="P87" s="47"/>
-      <c r="Q87" s="47"/>
-      <c r="R87" s="47"/>
-      <c r="S87" s="47"/>
-      <c r="T87" s="47"/>
-      <c r="U87" s="47"/>
-    </row>
-    <row r="88" spans="11:21">
-      <c r="K88" s="43"/>
-      <c r="N88" s="47">
-        <v>3</v>
-      </c>
-      <c r="O88" s="47" t="s">
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="43"/>
+      <c r="U88" s="43"/>
+    </row>
+    <row r="89" spans="11:21">
+      <c r="K89" s="39"/>
+      <c r="N89" s="43">
+        <v>4</v>
+      </c>
+      <c r="O89" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="P88" s="47"/>
-      <c r="Q88" s="47"/>
-      <c r="R88" s="47"/>
-      <c r="S88" s="47"/>
-      <c r="T88" s="47"/>
-      <c r="U88" s="47"/>
-    </row>
-    <row r="89" spans="11:21">
-      <c r="K89" s="43"/>
-      <c r="N89" s="47">
-        <v>4</v>
-      </c>
-      <c r="O89" s="47" t="s">
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="43"/>
+      <c r="U89" s="43"/>
+    </row>
+    <row r="90" spans="11:21">
+      <c r="K90" s="39"/>
+      <c r="N90" s="43">
+        <v>5</v>
+      </c>
+      <c r="O90" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="P89" s="47"/>
-      <c r="Q89" s="47"/>
-      <c r="R89" s="47"/>
-      <c r="S89" s="47"/>
-      <c r="T89" s="47"/>
-      <c r="U89" s="47"/>
-    </row>
-    <row r="90" spans="11:21">
-      <c r="K90" s="43"/>
-      <c r="N90" s="47">
-        <v>5</v>
-      </c>
-      <c r="O90" s="47" t="s">
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="43"/>
+      <c r="U90" s="43"/>
+    </row>
+    <row r="91" spans="11:21">
+      <c r="K91" s="39"/>
+      <c r="N91" s="43">
+        <v>6</v>
+      </c>
+      <c r="O91" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-      <c r="R90" s="47"/>
-      <c r="S90" s="47"/>
-      <c r="T90" s="47"/>
-      <c r="U90" s="47"/>
-    </row>
-    <row r="91" spans="11:21">
-      <c r="K91" s="43"/>
-      <c r="N91" s="47">
-        <v>6</v>
-      </c>
-      <c r="O91" s="47" t="s">
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+    </row>
+    <row r="92" spans="11:21">
+      <c r="K92" s="39"/>
+      <c r="N92" s="43">
+        <v>7</v>
+      </c>
+      <c r="O92" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="P91" s="47"/>
-      <c r="Q91" s="47"/>
-      <c r="R91" s="47"/>
-      <c r="S91" s="47"/>
-      <c r="T91" s="47"/>
-      <c r="U91" s="47"/>
-    </row>
-    <row r="92" spans="11:21">
-      <c r="K92" s="43"/>
-      <c r="N92" s="47">
-        <v>7</v>
-      </c>
-      <c r="O92" s="47" t="s">
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+    </row>
+    <row r="93" spans="11:21">
+      <c r="K93" s="39"/>
+      <c r="N93" s="43">
+        <v>8</v>
+      </c>
+      <c r="O93" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="P92" s="47"/>
-      <c r="Q92" s="47"/>
-      <c r="R92" s="47"/>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-    </row>
-    <row r="93" spans="11:21">
-      <c r="K93" s="43"/>
-      <c r="N93" s="47">
-        <v>8</v>
-      </c>
-      <c r="O93" s="47" t="s">
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+    </row>
+    <row r="94" spans="11:21">
+      <c r="K94" s="39"/>
+      <c r="N94" s="43">
+        <v>9</v>
+      </c>
+      <c r="O94" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="P93" s="47"/>
-      <c r="Q93" s="47"/>
-      <c r="R93" s="47"/>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-    </row>
-    <row r="94" spans="11:21">
-      <c r="K94" s="43"/>
-      <c r="N94" s="47">
-        <v>9</v>
-      </c>
-      <c r="O94" s="47" t="s">
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+    </row>
+    <row r="95" spans="11:21">
+      <c r="K95" s="39"/>
+      <c r="N95" s="43">
+        <v>10</v>
+      </c>
+      <c r="O95" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="P94" s="47"/>
-      <c r="Q94" s="47"/>
-      <c r="R94" s="47"/>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-    </row>
-    <row r="95" spans="11:21">
-      <c r="K95" s="43"/>
-      <c r="N95" s="47">
-        <v>10</v>
-      </c>
-      <c r="O95" s="47" t="s">
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+    </row>
+    <row r="96" spans="11:21">
+      <c r="K96" s="39"/>
+      <c r="N96" s="43">
+        <v>11</v>
+      </c>
+      <c r="O96" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="P95" s="47"/>
-      <c r="Q95" s="47"/>
-      <c r="R95" s="47"/>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-    </row>
-    <row r="96" spans="11:21">
-      <c r="K96" s="43"/>
-      <c r="N96" s="47">
-        <v>11</v>
-      </c>
-      <c r="O96" s="47" t="s">
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="43"/>
+      <c r="U96" s="43"/>
+    </row>
+    <row r="97" spans="11:21">
+      <c r="K97" s="39"/>
+      <c r="N97" s="43">
+        <v>12</v>
+      </c>
+      <c r="O97" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="P96" s="47"/>
-      <c r="Q96" s="47"/>
-      <c r="R96" s="47"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="47"/>
-      <c r="U96" s="47"/>
-    </row>
-    <row r="97" spans="11:21">
-      <c r="K97" s="43"/>
-      <c r="N97" s="47">
-        <v>12</v>
-      </c>
-      <c r="O97" s="47" t="s">
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="43"/>
+      <c r="U97" s="43"/>
+    </row>
+    <row r="98" spans="11:21">
+      <c r="K98" s="39"/>
+      <c r="N98" s="43">
+        <v>13</v>
+      </c>
+      <c r="O98" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="P97" s="47"/>
-      <c r="Q97" s="47"/>
-      <c r="R97" s="47"/>
-      <c r="S97" s="47"/>
-      <c r="T97" s="47"/>
-      <c r="U97" s="47"/>
-    </row>
-    <row r="98" spans="11:21">
-      <c r="K98" s="43"/>
-      <c r="N98" s="47">
-        <v>13</v>
-      </c>
-      <c r="O98" s="47" t="s">
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="43"/>
+      <c r="U98" s="43"/>
+    </row>
+    <row r="99" spans="11:21">
+      <c r="K99" s="39"/>
+      <c r="N99" s="43">
+        <v>14</v>
+      </c>
+      <c r="O99" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="P98" s="47"/>
-      <c r="Q98" s="47"/>
-      <c r="R98" s="47"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="47"/>
-      <c r="U98" s="47"/>
-    </row>
-    <row r="99" spans="11:21">
-      <c r="K99" s="43"/>
-      <c r="N99" s="47">
-        <v>14</v>
-      </c>
-      <c r="O99" s="47" t="s">
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+    </row>
+    <row r="100" spans="11:21">
+      <c r="K100" s="39"/>
+      <c r="N100" s="43">
+        <v>15</v>
+      </c>
+      <c r="O100" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="P99" s="47"/>
-      <c r="Q99" s="47"/>
-      <c r="R99" s="47"/>
-      <c r="S99" s="47"/>
-      <c r="T99" s="47"/>
-      <c r="U99" s="47"/>
-    </row>
-    <row r="100" spans="11:21">
-      <c r="K100" s="43"/>
-      <c r="N100" s="47">
-        <v>15</v>
-      </c>
-      <c r="O100" s="47" t="s">
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="43"/>
+      <c r="U100" s="43"/>
+    </row>
+    <row r="101" spans="11:21">
+      <c r="K101" s="39"/>
+      <c r="N101" s="43">
+        <v>16</v>
+      </c>
+      <c r="O101" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="P100" s="47"/>
-      <c r="Q100" s="47"/>
-      <c r="R100" s="47"/>
-      <c r="S100" s="47"/>
-      <c r="T100" s="47"/>
-      <c r="U100" s="47"/>
-    </row>
-    <row r="101" spans="11:21">
-      <c r="K101" s="43"/>
-      <c r="N101" s="47">
-        <v>16</v>
-      </c>
-      <c r="O101" s="47" t="s">
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="43"/>
+      <c r="U101" s="43"/>
+    </row>
+    <row r="102" spans="11:21">
+      <c r="K102" s="39"/>
+      <c r="N102" s="43">
+        <v>17</v>
+      </c>
+      <c r="O102" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="P101" s="47"/>
-      <c r="Q101" s="47"/>
-      <c r="R101" s="47"/>
-      <c r="S101" s="47"/>
-      <c r="T101" s="47"/>
-      <c r="U101" s="47"/>
-    </row>
-    <row r="102" spans="11:21">
-      <c r="K102" s="43"/>
-      <c r="N102" s="47">
-        <v>17</v>
-      </c>
-      <c r="O102" s="47" t="s">
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+    </row>
+    <row r="103" spans="11:21">
+      <c r="K103" s="39"/>
+      <c r="N103" s="43">
+        <v>18</v>
+      </c>
+      <c r="O103" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="P102" s="47"/>
-      <c r="Q102" s="47"/>
-      <c r="R102" s="47"/>
-      <c r="S102" s="47"/>
-      <c r="T102" s="47"/>
-      <c r="U102" s="47"/>
-    </row>
-    <row r="103" spans="11:21">
-      <c r="K103" s="43"/>
-      <c r="N103" s="47">
-        <v>18</v>
-      </c>
-      <c r="O103" s="47" t="s">
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+    </row>
+    <row r="104" spans="11:21">
+      <c r="K104" s="39"/>
+      <c r="N104" s="43">
+        <v>19</v>
+      </c>
+      <c r="O104" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="P103" s="47"/>
-      <c r="Q103" s="47"/>
-      <c r="R103" s="47"/>
-      <c r="S103" s="47"/>
-      <c r="T103" s="47"/>
-      <c r="U103" s="47"/>
-    </row>
-    <row r="104" spans="11:21">
-      <c r="K104" s="43"/>
-      <c r="N104" s="47">
-        <v>19</v>
-      </c>
-      <c r="O104" s="47" t="s">
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="43"/>
+      <c r="U104" s="43"/>
+    </row>
+    <row r="105" spans="11:21">
+      <c r="K105" s="39"/>
+      <c r="N105" s="43">
+        <v>20</v>
+      </c>
+      <c r="O105" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="P104" s="47"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="47"/>
-      <c r="S104" s="47"/>
-      <c r="T104" s="47"/>
-      <c r="U104" s="47"/>
-    </row>
-    <row r="105" spans="11:21">
-      <c r="K105" s="43"/>
-      <c r="N105" s="47">
-        <v>20</v>
-      </c>
-      <c r="O105" s="47" t="s">
+      <c r="P105" s="43"/>
+      <c r="Q105" s="43"/>
+      <c r="R105" s="43"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="43"/>
+      <c r="U105" s="43"/>
+    </row>
+    <row r="106" spans="11:21">
+      <c r="K106" s="39"/>
+      <c r="N106" s="43">
+        <v>21</v>
+      </c>
+      <c r="O106" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="P105" s="47"/>
-      <c r="Q105" s="47"/>
-      <c r="R105" s="47"/>
-      <c r="S105" s="47"/>
-      <c r="T105" s="47"/>
-      <c r="U105" s="47"/>
-    </row>
-    <row r="106" spans="11:21">
-      <c r="K106" s="43"/>
-      <c r="N106" s="47">
-        <v>21</v>
-      </c>
-      <c r="O106" s="47" t="s">
+      <c r="P106" s="43"/>
+      <c r="Q106" s="43"/>
+      <c r="R106" s="43"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="43"/>
+      <c r="U106" s="43"/>
+    </row>
+    <row r="107" spans="11:21">
+      <c r="K107" s="39"/>
+      <c r="N107" s="43">
+        <v>22</v>
+      </c>
+      <c r="O107" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="P106" s="47"/>
-      <c r="Q106" s="47"/>
-      <c r="R106" s="47"/>
-      <c r="S106" s="47"/>
-      <c r="T106" s="47"/>
-      <c r="U106" s="47"/>
-    </row>
-    <row r="107" spans="11:21">
-      <c r="K107" s="43"/>
-      <c r="N107" s="47">
-        <v>22</v>
-      </c>
-      <c r="O107" s="47" t="s">
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="43"/>
+      <c r="T107" s="43"/>
+      <c r="U107" s="43"/>
+    </row>
+    <row r="108" spans="11:21">
+      <c r="K108" s="39"/>
+      <c r="N108" s="43">
+        <v>23</v>
+      </c>
+      <c r="O108" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="P107" s="47"/>
-      <c r="Q107" s="47"/>
-      <c r="R107" s="47"/>
-      <c r="S107" s="47"/>
-      <c r="T107" s="47"/>
-      <c r="U107" s="47"/>
-    </row>
-    <row r="108" spans="11:21">
-      <c r="K108" s="43"/>
-      <c r="N108" s="47">
-        <v>23</v>
-      </c>
-      <c r="O108" s="47" t="s">
+      <c r="P108" s="43"/>
+      <c r="Q108" s="43"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="43"/>
+      <c r="T108" s="43"/>
+      <c r="U108" s="43"/>
+    </row>
+    <row r="109" spans="11:21">
+      <c r="K109" s="39"/>
+      <c r="N109" s="43">
+        <v>24</v>
+      </c>
+      <c r="O109" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="P108" s="47"/>
-      <c r="Q108" s="47"/>
-      <c r="R108" s="47"/>
-      <c r="S108" s="47"/>
-      <c r="T108" s="47"/>
-      <c r="U108" s="47"/>
-    </row>
-    <row r="109" spans="11:21">
-      <c r="K109" s="43"/>
-      <c r="N109" s="47">
-        <v>24</v>
-      </c>
-      <c r="O109" s="47" t="s">
+      <c r="P109" s="43"/>
+      <c r="Q109" s="43"/>
+      <c r="R109" s="43"/>
+      <c r="S109" s="43"/>
+      <c r="T109" s="43"/>
+      <c r="U109" s="43"/>
+    </row>
+    <row r="110" spans="11:21">
+      <c r="K110" s="39"/>
+      <c r="N110" s="43">
+        <v>25</v>
+      </c>
+      <c r="O110" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="47"/>
-      <c r="R109" s="47"/>
-      <c r="S109" s="47"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="47"/>
-    </row>
-    <row r="110" spans="11:21">
-      <c r="K110" s="43"/>
-      <c r="N110" s="47">
-        <v>25</v>
-      </c>
-      <c r="O110" s="47" t="s">
+      <c r="P110" s="43"/>
+      <c r="Q110" s="43"/>
+      <c r="R110" s="43"/>
+      <c r="S110" s="43"/>
+      <c r="T110" s="43"/>
+      <c r="U110" s="43"/>
+    </row>
+    <row r="111" spans="11:21">
+      <c r="K111" s="39"/>
+      <c r="N111" s="43">
+        <v>26</v>
+      </c>
+      <c r="O111" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="P110" s="47"/>
-      <c r="Q110" s="47"/>
-      <c r="R110" s="47"/>
-      <c r="S110" s="47"/>
-      <c r="T110" s="47"/>
-      <c r="U110" s="47"/>
-    </row>
-    <row r="111" spans="11:21">
-      <c r="K111" s="43"/>
-      <c r="N111" s="47">
-        <v>26</v>
-      </c>
-      <c r="O111" s="47" t="s">
+      <c r="P111" s="43"/>
+      <c r="Q111" s="43"/>
+      <c r="R111" s="43"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+    </row>
+    <row r="112" spans="11:21">
+      <c r="K112" s="39"/>
+      <c r="N112" s="43">
+        <v>27</v>
+      </c>
+      <c r="O112" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="P111" s="47"/>
-      <c r="Q111" s="47"/>
-      <c r="R111" s="47"/>
-      <c r="S111" s="47"/>
-      <c r="T111" s="47"/>
-      <c r="U111" s="47"/>
-    </row>
-    <row r="112" spans="11:21">
-      <c r="K112" s="43"/>
-      <c r="N112" s="47">
-        <v>27</v>
-      </c>
-      <c r="O112" s="47" t="s">
+      <c r="P112" s="43"/>
+      <c r="Q112" s="43"/>
+      <c r="R112" s="43"/>
+      <c r="S112" s="43"/>
+      <c r="T112" s="43"/>
+      <c r="U112" s="43"/>
+    </row>
+    <row r="113" spans="11:21">
+      <c r="K113" s="39"/>
+      <c r="N113" s="43">
+        <v>28</v>
+      </c>
+      <c r="O113" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="P112" s="47"/>
-      <c r="Q112" s="47"/>
-      <c r="R112" s="47"/>
-      <c r="S112" s="47"/>
-      <c r="T112" s="47"/>
-      <c r="U112" s="47"/>
-    </row>
-    <row r="113" spans="11:21">
-      <c r="K113" s="43"/>
-      <c r="N113" s="47">
-        <v>28</v>
-      </c>
-      <c r="O113" s="47" t="s">
+      <c r="P113" s="43"/>
+      <c r="Q113" s="43"/>
+      <c r="R113" s="43"/>
+      <c r="S113" s="43"/>
+      <c r="T113" s="43"/>
+      <c r="U113" s="43"/>
+    </row>
+    <row r="114" spans="11:21">
+      <c r="K114" s="39"/>
+      <c r="N114" s="43">
+        <v>29</v>
+      </c>
+      <c r="O114" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="P113" s="47"/>
-      <c r="Q113" s="47"/>
-      <c r="R113" s="47"/>
-      <c r="S113" s="47"/>
-      <c r="T113" s="47"/>
-      <c r="U113" s="47"/>
-    </row>
-    <row r="114" spans="11:21">
-      <c r="K114" s="43"/>
-      <c r="N114" s="47">
-        <v>29</v>
-      </c>
-      <c r="O114" s="47" t="s">
+      <c r="P114" s="43"/>
+      <c r="Q114" s="43"/>
+      <c r="R114" s="43"/>
+      <c r="S114" s="43"/>
+      <c r="T114" s="43"/>
+      <c r="U114" s="43"/>
+    </row>
+    <row r="115" spans="11:21">
+      <c r="K115" s="39"/>
+      <c r="N115" s="43">
+        <v>30</v>
+      </c>
+      <c r="O115" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="P114" s="47"/>
-      <c r="Q114" s="47"/>
-      <c r="R114" s="47"/>
-      <c r="S114" s="47"/>
-      <c r="T114" s="47"/>
-      <c r="U114" s="47"/>
-    </row>
-    <row r="115" spans="11:21">
-      <c r="K115" s="43"/>
-      <c r="N115" s="47">
-        <v>30</v>
-      </c>
-      <c r="O115" s="47" t="s">
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
+      <c r="R115" s="43"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="43"/>
+      <c r="U115" s="43"/>
+    </row>
+    <row r="116" spans="11:21">
+      <c r="K116" s="39"/>
+      <c r="N116" s="43">
+        <v>40</v>
+      </c>
+      <c r="O116" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="P115" s="47"/>
-      <c r="Q115" s="47"/>
-      <c r="R115" s="47"/>
-      <c r="S115" s="47"/>
-      <c r="T115" s="47"/>
-      <c r="U115" s="47"/>
-    </row>
-    <row r="116" spans="11:21">
-      <c r="K116" s="43"/>
-      <c r="N116" s="47">
-        <v>40</v>
-      </c>
-      <c r="O116" s="47" t="s">
+      <c r="P116" s="43"/>
+      <c r="Q116" s="43"/>
+      <c r="R116" s="43"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+    </row>
+    <row r="117" spans="11:21">
+      <c r="K117" s="39"/>
+      <c r="N117" s="43">
+        <v>50</v>
+      </c>
+      <c r="O117" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="P116" s="47"/>
-      <c r="Q116" s="47"/>
-      <c r="R116" s="47"/>
-      <c r="S116" s="47"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
-    </row>
-    <row r="117" spans="11:21">
-      <c r="K117" s="43"/>
-      <c r="N117" s="47">
-        <v>50</v>
-      </c>
-      <c r="O117" s="47" t="s">
+      <c r="P117" s="43"/>
+      <c r="Q117" s="43"/>
+      <c r="R117" s="43"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+    </row>
+    <row r="118" spans="11:21">
+      <c r="K118" s="39"/>
+      <c r="N118" s="43">
+        <v>60</v>
+      </c>
+      <c r="O118" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="P117" s="47"/>
-      <c r="Q117" s="47"/>
-      <c r="R117" s="47"/>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-    </row>
-    <row r="118" spans="11:21">
-      <c r="K118" s="43"/>
-      <c r="N118" s="47">
-        <v>60</v>
-      </c>
-      <c r="O118" s="47" t="s">
+      <c r="P118" s="43"/>
+      <c r="Q118" s="43"/>
+      <c r="R118" s="43"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+    </row>
+    <row r="119" spans="11:21">
+      <c r="K119" s="39"/>
+      <c r="N119" s="43">
+        <v>70</v>
+      </c>
+      <c r="O119" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="P118" s="47"/>
-      <c r="Q118" s="47"/>
-      <c r="R118" s="47"/>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
-    </row>
-    <row r="119" spans="11:21">
-      <c r="K119" s="43"/>
-      <c r="N119" s="47">
-        <v>70</v>
-      </c>
-      <c r="O119" s="47" t="s">
+      <c r="P119" s="43"/>
+      <c r="Q119" s="43"/>
+      <c r="R119" s="43"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+    </row>
+    <row r="120" spans="11:21">
+      <c r="K120" s="39"/>
+      <c r="N120" s="43">
+        <v>80</v>
+      </c>
+      <c r="O120" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="P119" s="47"/>
-      <c r="Q119" s="47"/>
-      <c r="R119" s="47"/>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-    </row>
-    <row r="120" spans="11:21">
-      <c r="K120" s="43"/>
-      <c r="N120" s="47">
-        <v>80</v>
-      </c>
-      <c r="O120" s="47" t="s">
+      <c r="P120" s="43"/>
+      <c r="Q120" s="43"/>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
+      <c r="U120" s="43"/>
+    </row>
+    <row r="121" spans="11:21">
+      <c r="K121" s="39"/>
+      <c r="N121" s="43">
+        <v>90</v>
+      </c>
+      <c r="O121" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="P120" s="47"/>
-      <c r="Q120" s="47"/>
-      <c r="R120" s="47"/>
-      <c r="S120" s="47"/>
-      <c r="T120" s="47"/>
-      <c r="U120" s="47"/>
-    </row>
-    <row r="121" spans="11:21">
-      <c r="K121" s="43"/>
-      <c r="N121" s="47">
-        <v>90</v>
-      </c>
-      <c r="O121" s="47" t="s">
+      <c r="P121" s="43"/>
+      <c r="Q121" s="43"/>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+    </row>
+    <row r="122" spans="11:21">
+      <c r="K122" s="39"/>
+      <c r="N122" s="43">
+        <v>100</v>
+      </c>
+      <c r="O122" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="P121" s="47"/>
-      <c r="Q121" s="47"/>
-      <c r="R121" s="47"/>
-      <c r="S121" s="47"/>
-      <c r="T121" s="47"/>
-      <c r="U121" s="47"/>
-    </row>
-    <row r="122" spans="11:21">
-      <c r="K122" s="43"/>
-      <c r="N122" s="47">
-        <v>100</v>
-      </c>
-      <c r="O122" s="47" t="s">
+      <c r="P122" s="43"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+    </row>
+    <row r="123" spans="11:21">
+      <c r="K123" s="39"/>
+      <c r="N123" s="43">
+        <v>200</v>
+      </c>
+      <c r="O123" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="P122" s="47"/>
-      <c r="Q122" s="47"/>
-      <c r="R122" s="47"/>
-      <c r="S122" s="47"/>
-      <c r="T122" s="47"/>
-      <c r="U122" s="47"/>
-    </row>
-    <row r="123" spans="11:21">
-      <c r="K123" s="43"/>
-      <c r="N123" s="47">
-        <v>200</v>
-      </c>
-      <c r="O123" s="47" t="s">
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="43"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="43"/>
+      <c r="U123" s="43"/>
+    </row>
+    <row r="124" spans="11:21">
+      <c r="K124" s="39"/>
+      <c r="N124" s="43">
+        <v>300</v>
+      </c>
+      <c r="O124" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="P123" s="47"/>
-      <c r="Q123" s="47"/>
-      <c r="R123" s="47"/>
-      <c r="S123" s="47"/>
-      <c r="T123" s="47"/>
-      <c r="U123" s="47"/>
-    </row>
-    <row r="124" spans="11:21">
-      <c r="K124" s="43"/>
-      <c r="N124" s="47">
-        <v>300</v>
-      </c>
-      <c r="O124" s="47" t="s">
+      <c r="P124" s="43"/>
+      <c r="Q124" s="43"/>
+      <c r="R124" s="43"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="43"/>
+      <c r="U124" s="43"/>
+    </row>
+    <row r="125" spans="11:21">
+      <c r="K125" s="39"/>
+      <c r="N125" s="43">
+        <v>400</v>
+      </c>
+      <c r="O125" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="P124" s="47"/>
-      <c r="Q124" s="47"/>
-      <c r="R124" s="47"/>
-      <c r="S124" s="47"/>
-      <c r="T124" s="47"/>
-      <c r="U124" s="47"/>
-    </row>
-    <row r="125" spans="11:21">
-      <c r="K125" s="43"/>
-      <c r="N125" s="47">
-        <v>400</v>
-      </c>
-      <c r="O125" s="47" t="s">
+      <c r="P125" s="43"/>
+      <c r="Q125" s="43"/>
+      <c r="R125" s="43"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="43"/>
+      <c r="U125" s="43"/>
+    </row>
+    <row r="126" spans="11:21">
+      <c r="K126" s="39"/>
+      <c r="N126" s="43">
+        <v>500</v>
+      </c>
+      <c r="O126" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="P125" s="47"/>
-      <c r="Q125" s="47"/>
-      <c r="R125" s="47"/>
-      <c r="S125" s="47"/>
-      <c r="T125" s="47"/>
-      <c r="U125" s="47"/>
-    </row>
-    <row r="126" spans="11:21">
-      <c r="K126" s="43"/>
-      <c r="N126" s="47">
-        <v>500</v>
-      </c>
-      <c r="O126" s="47" t="s">
+      <c r="P126" s="43"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="43"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="43"/>
+      <c r="U126" s="43"/>
+    </row>
+    <row r="127" spans="11:21">
+      <c r="K127" s="39"/>
+      <c r="N127" s="43">
+        <v>600</v>
+      </c>
+      <c r="O127" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="P126" s="47"/>
-      <c r="Q126" s="47"/>
-      <c r="R126" s="47"/>
-      <c r="S126" s="47"/>
-      <c r="T126" s="47"/>
-      <c r="U126" s="47"/>
-    </row>
-    <row r="127" spans="11:21">
-      <c r="K127" s="43"/>
-      <c r="N127" s="47">
-        <v>600</v>
-      </c>
-      <c r="O127" s="47" t="s">
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="43"/>
+      <c r="U127" s="43"/>
+    </row>
+    <row r="128" spans="11:21">
+      <c r="K128" s="39"/>
+      <c r="N128" s="43">
+        <v>700</v>
+      </c>
+      <c r="O128" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="P127" s="47"/>
-      <c r="Q127" s="47"/>
-      <c r="R127" s="47"/>
-      <c r="S127" s="47"/>
-      <c r="T127" s="47"/>
-      <c r="U127" s="47"/>
-    </row>
-    <row r="128" spans="11:21">
-      <c r="K128" s="43"/>
-      <c r="N128" s="47">
-        <v>700</v>
-      </c>
-      <c r="O128" s="47" t="s">
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="43"/>
+      <c r="S128" s="43"/>
+      <c r="T128" s="43"/>
+      <c r="U128" s="43"/>
+    </row>
+    <row r="129" spans="11:21">
+      <c r="K129" s="39"/>
+      <c r="N129" s="43">
+        <v>800</v>
+      </c>
+      <c r="O129" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="P128" s="47"/>
-      <c r="Q128" s="47"/>
-      <c r="R128" s="47"/>
-      <c r="S128" s="47"/>
-      <c r="T128" s="47"/>
-      <c r="U128" s="47"/>
-    </row>
-    <row r="129" spans="11:21">
-      <c r="K129" s="43"/>
-      <c r="N129" s="47">
-        <v>800</v>
-      </c>
-      <c r="O129" s="47" t="s">
+      <c r="P129" s="43"/>
+      <c r="Q129" s="43"/>
+      <c r="R129" s="43"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="43"/>
+      <c r="U129" s="43"/>
+    </row>
+    <row r="130" spans="11:21">
+      <c r="K130" s="39"/>
+      <c r="N130" s="43">
+        <v>900</v>
+      </c>
+      <c r="O130" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="P129" s="47"/>
-      <c r="Q129" s="47"/>
-      <c r="R129" s="47"/>
-      <c r="S129" s="47"/>
-      <c r="T129" s="47"/>
-      <c r="U129" s="47"/>
-    </row>
-    <row r="130" spans="11:21">
-      <c r="K130" s="43"/>
-      <c r="N130" s="47">
-        <v>900</v>
-      </c>
-      <c r="O130" s="47" t="s">
+      <c r="P130" s="43"/>
+      <c r="Q130" s="43"/>
+      <c r="R130" s="43"/>
+      <c r="S130" s="43"/>
+      <c r="T130" s="43"/>
+      <c r="U130" s="43"/>
+    </row>
+    <row r="131" spans="11:21">
+      <c r="K131" s="39"/>
+      <c r="N131" s="43">
+        <v>1000</v>
+      </c>
+      <c r="O131" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="P130" s="47"/>
-      <c r="Q130" s="47"/>
-      <c r="R130" s="47"/>
-      <c r="S130" s="47"/>
-      <c r="T130" s="47"/>
-      <c r="U130" s="47"/>
-    </row>
-    <row r="131" spans="11:21">
-      <c r="K131" s="43"/>
-      <c r="N131" s="47">
-        <v>1000</v>
-      </c>
-      <c r="O131" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="P131" s="47"/>
-      <c r="Q131" s="47"/>
-      <c r="R131" s="47"/>
-      <c r="S131" s="47"/>
-      <c r="T131" s="47"/>
-      <c r="U131" s="47"/>
+      <c r="P131" s="43"/>
+      <c r="Q131" s="43"/>
+      <c r="R131" s="43"/>
+      <c r="S131" s="43"/>
+      <c r="T131" s="43"/>
+      <c r="U131" s="43"/>
     </row>
     <row r="132" spans="11:21">
-      <c r="K132" s="43"/>
+      <c r="K132" s="39"/>
     </row>
     <row r="133" spans="11:21">
-      <c r="K133" s="43"/>
+      <c r="K133" s="39"/>
     </row>
     <row r="134" spans="11:21">
-      <c r="K134" s="43"/>
+      <c r="K134" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5787,7 +5782,7 @@
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J21:K21"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0" top="1.5748031496062993" bottom="0.98425196850393704" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414229C4-C5DA-475C-B6C8-C94453CC88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9FF3C-0615-4AAF-9307-F0C1AD1E746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="701" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact CPGNA" sheetId="2" r:id="rId1"/>
-    <sheet name="factura" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
+    <sheet name="factura" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="\A">#REF!</definedName>
@@ -31,10 +32,11 @@
     <definedName name="\V">#REF!</definedName>
     <definedName name="\W">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fact CPGNA'!$B$2:$K$93</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">factura!$E$10:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">factura!$E$10:$L$53</definedName>
     <definedName name="AREPORTE_DIARI">#REF!</definedName>
     <definedName name="AREPORTE1">#REF!</definedName>
     <definedName name="BALANCE1">#REF!</definedName>
+    <definedName name="BarrilesProducto_Items">Hoja1!$L$8:$Q$9</definedName>
     <definedName name="GASEST">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -45,6 +47,7 @@
     <definedName name="reporte">#REF!</definedName>
     <definedName name="REPORTE_DIARIO">#REF!</definedName>
     <definedName name="REPORTE1">#REF!</definedName>
+    <definedName name="ResumenEntrega_Items">Hoja1!$B$8:$I$9</definedName>
     <definedName name="TipoCambio_Items">'Fact CPGNA'!$I$9:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
   <si>
     <r>
       <t xml:space="preserve">A) Determinación del </t>
@@ -755,6 +758,120 @@
       <t xml:space="preserve"> </t>
     </r>
   </si>
+  <si>
+    <t>BOLETA DEL PROMEDIO MENSUAL VOLUMEN DE PROCESAMIENTO GAS NATURAL ASOCIADO (GNA)</t>
+  </si>
+  <si>
+    <t>BOLETA MENSUAL DEL VOLUMEN TOTAL PRODUCIDO DE CPGNA, GLP Y CGN</t>
+  </si>
+  <si>
+    <t>MES:</t>
+  </si>
+  <si>
+    <t>Volumen</t>
+  </si>
+  <si>
+    <t>Horas no procesadas</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>CPGNA (*)</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>CNPC</t>
+  </si>
+  <si>
+    <t>No procesado</t>
+  </si>
+  <si>
+    <t>Planta F/S</t>
+  </si>
+  <si>
+    <t>Ajuste con Plantas E/S</t>
+  </si>
+  <si>
+    <t>Procesado</t>
+  </si>
+  <si>
+    <t>Barriles</t>
+  </si>
+  <si>
+    <t>Número de días del período mensual =</t>
+  </si>
+  <si>
+    <t>días</t>
+  </si>
+  <si>
+    <t>(*) CPGNA: Componentes Pesados del Gas Natural Asociado.</t>
+  </si>
+  <si>
+    <t>MMPCD</t>
+  </si>
+  <si>
+    <t>UNNA ENERGIA S.A</t>
+  </si>
+  <si>
+    <t>ENEL Generación Piura S.A</t>
+  </si>
+  <si>
+    <t>{{item.Fecha}}</t>
+  </si>
+  <si>
+    <t>{{item.Cnpc}}</t>
+  </si>
+  <si>
+    <t>{{item.Total}}</t>
+  </si>
+  <si>
+    <t>{{item.NoProcesado}}</t>
+  </si>
+  <si>
+    <t>{{item.PlantaFs}}</t>
+  </si>
+  <si>
+    <t>{{item.AjustePlantaFs}}</t>
+  </si>
+  <si>
+    <t>{{item.Procesado}}</t>
+  </si>
+  <si>
+    <t>{{item.ProcesadoHoras}}</t>
+  </si>
+  <si>
+    <t>{{NumeroDiasPeriodo}}</t>
+  </si>
+  <si>
+    <t>{{Mmpcd}}</t>
+  </si>
+  <si>
+    <t>{{CentajeTotal}}</t>
+  </si>
+  <si>
+    <t>{{CentajeCgn}}</t>
+  </si>
+  <si>
+    <t>{{CentajeGlp}}</t>
+  </si>
+  <si>
+    <t>{{item.Cgn}}</t>
+  </si>
+  <si>
+    <t>{{item.Glp}}</t>
+  </si>
 </sst>
 </file>
 
@@ -779,7 +896,7 @@
     <numFmt numFmtId="179" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="180" formatCode="[$-280A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="76">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1255,6 +1372,25 @@
       <color indexed="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1468,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1819,8 +1955,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="357">
+  <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2187,8 +2334,9 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2471,6 +2619,74 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="357" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="125" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="125"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="357" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2483,21 +2699,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="357">
+  <cellStyles count="358">
     <cellStyle name="20% - Énfasis1" xfId="52" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="161" xr:uid="{BC31B0FA-7ECA-42A2-BF2F-58BC3EDDF6B7}"/>
     <cellStyle name="20% - Énfasis1 3" xfId="196" xr:uid="{EBD5C74F-BAFF-41BB-B203-6B292FE296B1}"/>
@@ -2832,6 +3062,7 @@
     <cellStyle name="Normal 9 6 4" xfId="299" xr:uid="{B622046E-61BA-42DC-ADEE-4638FE476886}"/>
     <cellStyle name="Normal 9 6 5" xfId="333" xr:uid="{CDCCFAE6-0AD5-4D43-BDFA-B4BA143500F4}"/>
     <cellStyle name="Normal 9 7" xfId="152" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Normal_Boleta diaria GMP-EEPSA" xfId="357" xr:uid="{5154C9AC-AEE3-47F7-AF26-E49221A996C8}"/>
     <cellStyle name="Normal_NÚM_ EN LETRAS_REV1" xfId="32" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Notas 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Notas 2 2" xfId="193" xr:uid="{E7280A75-27F0-4B8A-8DFD-D98312633A50}"/>
@@ -2856,7 +3087,18 @@
     <cellStyle name="Título 4" xfId="159" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
     <cellStyle name="Total" xfId="50" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2971,6 +3213,129 @@
         <a:xfrm>
           <a:off x="5921096" y="268605"/>
           <a:ext cx="928316" cy="395312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="112374" y="85724"/>
+          <a:ext cx="1068725" cy="460481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171905</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356114</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7544255" y="73817"/>
+          <a:ext cx="946209" cy="402932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,7 +3710,7 @@
   </sheetPr>
   <dimension ref="B2:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3365,23 +3730,23 @@
       <c r="N2" s="90"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="171" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
       <c r="N3" s="88"/>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
       <c r="N4" s="89"/>
     </row>
     <row r="5" spans="3:18">
@@ -3405,19 +3770,19 @@
     </row>
     <row r="8" spans="3:18" ht="12.75" customHeight="1">
       <c r="G8" s="91"/>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="137"/>
+      <c r="J8" s="173"/>
       <c r="M8" s="82"/>
       <c r="N8" s="7"/>
       <c r="O8" s="83"/>
     </row>
     <row r="9" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="170"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -3769,42 +4134,42 @@
       <c r="R31" s="55"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="140" t="s">
+      <c r="C32" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
       <c r="M32" s="62"/>
       <c r="N32" s="54"/>
       <c r="O32" s="54"/>
       <c r="P32" s="55"/>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="142" t="s">
+      <c r="C33" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="169"/>
+      <c r="H33" s="169"/>
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="142" t="s">
+      <c r="C34" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="169"/>
       <c r="I34" s="84"/>
       <c r="J34" s="84"/>
     </row>
@@ -4214,6 +4579,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C20844-8914-4D92-B039-BDC0FF141079}">
+  <dimension ref="B2:R24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="C2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="M3" s="137"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="N4" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="O4" s="138"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="177" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="178"/>
+      <c r="H6" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="M6" s="142" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q6" s="140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="22.5">
+      <c r="B7" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="145" t="s">
+        <v>178</v>
+      </c>
+      <c r="N7" s="141"/>
+      <c r="O7" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" s="140" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="148" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="149" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="149" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="146"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="155" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="155" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q10" s="155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="153"/>
+      <c r="D11" s="154" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="167" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="153"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="152"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="L12" s="156" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="154"/>
+      <c r="Q12" s="154"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" s="154"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="168" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="154"/>
+      <c r="N13" s="152"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="154"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="C21" s="107"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="163"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="C22" s="175" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="G22" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="181" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="175"/>
+      <c r="O22" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="162"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="L22:M22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N8:N9">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:U134"/>
   <sheetViews>
@@ -4274,10 +4940,10 @@
     </row>
     <row r="16" spans="4:11" ht="25.5" customHeight="1"/>
     <row r="17" spans="5:15" ht="27" customHeight="1">
-      <c r="J17" s="138" t="s">
+      <c r="J17" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="138"/>
+      <c r="K17" s="179"/>
       <c r="L17" s="24" t="s">
         <v>68</v>
       </c>
@@ -4301,11 +4967,11 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="139" t="str">
+      <c r="J19" s="180" t="str">
         <f>+'Fact CPGNA'!E68</f>
         <v>{{CmPrecioPsec}}</v>
       </c>
-      <c r="K19" s="139"/>
+      <c r="K19" s="180"/>
       <c r="L19" s="99" t="e">
         <f>ROUND(+E19*J19,2)</f>
         <v>#VALUE!</v>
@@ -4327,8 +4993,8 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
       <c r="L21" s="99"/>
     </row>
     <row r="22" spans="5:15">
@@ -4411,8 +5077,8 @@
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
       <c r="L29" s="26"/>
       <c r="N29" s="7"/>
     </row>
@@ -4422,8 +5088,8 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
       <c r="L30" s="100"/>
       <c r="N30" s="7"/>
     </row>
@@ -5799,6 +6465,36 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Organizacion xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">ENEL</Organizacion>
+    <Tipo_x0020_Auditoria xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Contraprestación ENEL</Tipo_x0020_Auditoria>
+    <TaxCatchAll xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Value>24</Value>
+      <Value>48</Value>
+    </TaxCatchAll>
+    <mc2ce51dacb94f6bb557174edb7a5e78 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">46694912-6763-4975-9fd9-c77e0dec2cab</TermId>
+        </TermInfo>
+      </Terms>
+    </mc2ce51dacb94f6bb557174edb7a5e78>
+    <o8e2700eeee4411fa2022dc950eab810 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Agosto</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8293fe82-d099-439f-94cb-06d5159728f8</TermId>
+        </TermInfo>
+      </Terms>
+    </o8e2700eeee4411fa2022dc950eab810>
+    <Auditoría xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Documentos Mensuales ENEL</Auditoría>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Proceso" ma:contentTypeID="0x010100D161328C4CF32444B4DE139121D8DE5300467F84FB5DF4654FA6987AFE6EF80A25" ma:contentTypeVersion="12" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="9bb515c4dce2649fb18d4a58e4a0061d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f" xmlns:ns3="ef91d8dc-f46d-44cd-a575-8661b4cef94d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="661945d0f72ea79a21c93577ebd50501" ns2:_="" ns3:_="">
     <xsd:import namespace="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
@@ -6032,36 +6728,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Organizacion xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">ENEL</Organizacion>
-    <Tipo_x0020_Auditoria xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Contraprestación ENEL</Tipo_x0020_Auditoria>
-    <TaxCatchAll xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Value>24</Value>
-      <Value>48</Value>
-    </TaxCatchAll>
-    <mc2ce51dacb94f6bb557174edb7a5e78 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">46694912-6763-4975-9fd9-c77e0dec2cab</TermId>
-        </TermInfo>
-      </Terms>
-    </mc2ce51dacb94f6bb557174edb7a5e78>
-    <o8e2700eeee4411fa2022dc950eab810 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Agosto</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8293fe82-d099-439f-94cb-06d5159728f8</TermId>
-        </TermInfo>
-      </Terms>
-    </o8e2700eeee4411fa2022dc950eab810>
-    <Auditoría xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Documentos Mensuales ENEL</Auditoría>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E5FBB0-2BF7-47BA-93B4-8BCCB17B4A48}">
   <ds:schemaRefs>
@@ -6071,6 +6737,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2122C46F-BE4A-408F-90D1-8534F571971D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef91d8dc-f46d-44cd-a575-8661b4cef94d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55A0763-6430-4A4D-B6B1-15B4D947EEFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6089,23 +6772,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2122C46F-BE4A-408F-90D1-8534F571971D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef91d8dc-f46d-44cd-a575-8661b4cef94d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{65bb3aad-376d-42f5-83f9-9beaea39fdc4}" enabled="0" method="" siteId="{65bb3aad-376d-42f5-83f9-9beaea39fdc4}" removed="1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F9FF3C-0615-4AAF-9307-F0C1AD1E746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F883-F064-4647-BFFD-12250B073416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="701" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact CPGNA" sheetId="2" r:id="rId1"/>
@@ -51,22 +51,11 @@
     <definedName name="TipoCambio_Items">'Fact CPGNA'!$I$9:$J$10</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="202">
   <si>
     <r>
       <t xml:space="preserve">A) Determinación del </t>
@@ -718,9 +707,6 @@
     <t>{{PrecioFacturacion}}</t>
   </si>
   <si>
-    <t>{{Cm}}</t>
-  </si>
-  <si>
     <t>{{VolumenProcesamientoGna}}</t>
   </si>
   <si>
@@ -871,6 +857,15 @@
   </si>
   <si>
     <t>{{item.Glp}}</t>
+  </si>
+  <si>
+    <t>{{Cm}}  %</t>
+  </si>
+  <si>
+    <t>{{Cm}} %</t>
+  </si>
+  <si>
+    <t>{{Pref}}</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2331,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2531,44 +2526,43 @@
     <xf numFmtId="171" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2577,37 +2571,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2619,10 +2607,7 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2672,18 +2657,17 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="357" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="47" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2714,17 +2698,14 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="358">
@@ -3125,11 +3106,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>259080</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3708,45 +3689,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:R99"/>
+  <dimension ref="C2:R99"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:18">
       <c r="N2" s="90"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
       <c r="N3" s="88"/>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
       <c r="N4" s="89"/>
     </row>
     <row r="5" spans="3:18">
@@ -3770,26 +3751,26 @@
     </row>
     <row r="8" spans="3:18" ht="12.75" customHeight="1">
       <c r="G8" s="91"/>
-      <c r="I8" s="172" t="s">
+      <c r="I8" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="173"/>
+      <c r="J8" s="168"/>
       <c r="M8" s="82"/>
       <c r="N8" s="7"/>
       <c r="O8" s="83"/>
     </row>
     <row r="9" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="170"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="71"/>
       <c r="H9" s="71"/>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="130" t="s">
         <v>141</v>
       </c>
       <c r="J9" s="106" t="s">
@@ -3825,16 +3806,16 @@
       <c r="R10" s="63"/>
     </row>
     <row r="11" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="124" t="s">
         <v>140</v>
       </c>
       <c r="G11" s="71">
@@ -3856,8 +3837,8 @@
       <c r="F12" s="87"/>
       <c r="G12" s="91"/>
       <c r="H12" s="71"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
       <c r="K12" s="54"/>
       <c r="M12" s="82"/>
       <c r="N12" s="7"/>
@@ -3871,10 +3852,10 @@
       <c r="F13" s="87"/>
       <c r="G13" s="91"/>
       <c r="H13" s="71"/>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="110" t="s">
         <v>136</v>
       </c>
       <c r="K13" s="54"/>
@@ -3889,8 +3870,8 @@
       <c r="E14" s="86"/>
       <c r="F14" s="87"/>
       <c r="G14" s="91"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
       <c r="K14" s="54"/>
       <c r="M14" s="82"/>
       <c r="N14" s="7"/>
@@ -3902,15 +3883,15 @@
         <v>8</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="125" t="s">
+      <c r="E15" s="122" t="s">
         <v>143</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="91"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="130"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
       <c r="K15" s="54"/>
       <c r="M15" s="82"/>
       <c r="N15" s="7"/>
@@ -3919,8 +3900,8 @@
     </row>
     <row r="16" spans="3:18" ht="13.5" customHeight="1">
       <c r="E16" s="1"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
       <c r="K16" s="54"/>
       <c r="M16" s="82"/>
       <c r="N16" s="7"/>
@@ -3937,8 +3918,8 @@
       <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
       <c r="K17" s="54"/>
       <c r="M17" s="82"/>
       <c r="N17" s="7"/>
@@ -3958,8 +3939,8 @@
       <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
       <c r="K18" s="54"/>
       <c r="M18" s="82"/>
       <c r="N18" s="7"/>
@@ -3976,8 +3957,8 @@
       <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="129"/>
-      <c r="J19" s="130"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
       <c r="K19" s="54"/>
       <c r="M19" s="82"/>
       <c r="N19" s="7"/>
@@ -3986,8 +3967,8 @@
     </row>
     <row r="20" spans="3:18" ht="13.5" customHeight="1" thickBot="1">
       <c r="E20" s="1"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="130"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
       <c r="K20" s="54"/>
       <c r="M20" s="82"/>
       <c r="N20" s="7"/>
@@ -4005,8 +3986,8 @@
       <c r="F21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="129"/>
-      <c r="J21" s="130"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
       <c r="K21" s="54"/>
       <c r="M21" s="82"/>
       <c r="N21" s="7"/>
@@ -4018,8 +3999,8 @@
       <c r="D22" s="3"/>
       <c r="E22" s="51"/>
       <c r="F22" s="3"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="130"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
       <c r="K22" s="54"/>
       <c r="M22" s="82"/>
       <c r="N22" s="7"/>
@@ -4031,8 +4012,8 @@
       <c r="D23" s="3"/>
       <c r="E23" s="51"/>
       <c r="F23" s="3"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
       <c r="K23" s="54"/>
       <c r="M23" s="82"/>
       <c r="N23" s="7"/>
@@ -4044,8 +4025,8 @@
       <c r="D24" s="3"/>
       <c r="E24" s="51"/>
       <c r="F24" s="3"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
       <c r="K24" s="54"/>
       <c r="M24" s="82"/>
       <c r="N24" s="7"/>
@@ -4057,8 +4038,8 @@
       <c r="D25" s="3"/>
       <c r="E25" s="51"/>
       <c r="F25" s="3"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
       <c r="K25" s="54"/>
       <c r="M25" s="82"/>
       <c r="N25" s="7"/>
@@ -4070,8 +4051,8 @@
       <c r="D26" s="3"/>
       <c r="E26" s="51"/>
       <c r="F26" s="3"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="130"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
       <c r="K26" s="54"/>
       <c r="M26" s="82"/>
       <c r="N26" s="7"/>
@@ -4083,8 +4064,8 @@
       <c r="D27" s="3"/>
       <c r="E27" s="51"/>
       <c r="F27" s="3"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="130"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
       <c r="K27" s="54"/>
       <c r="M27" s="82"/>
       <c r="N27" s="7"/>
@@ -4096,8 +4077,8 @@
       <c r="D28" s="3"/>
       <c r="E28" s="51"/>
       <c r="F28" s="3"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="130"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
       <c r="K28" s="54"/>
       <c r="M28" s="82"/>
       <c r="N28" s="7"/>
@@ -4122,7 +4103,7 @@
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
     </row>
-    <row r="31" spans="3:18" ht="14.25">
+    <row r="31" spans="3:18" ht="13.8">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
@@ -4134,42 +4115,42 @@
       <c r="R31" s="55"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="174" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
+      <c r="C32" s="169" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
       <c r="M32" s="62"/>
       <c r="N32" s="54"/>
       <c r="O32" s="54"/>
       <c r="P32" s="55"/>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="164"/>
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="169" t="s">
+      <c r="C34" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
       <c r="I34" s="84"/>
       <c r="J34" s="84"/>
     </row>
@@ -4193,9 +4174,8 @@
       <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="122" t="str">
-        <f>+E21</f>
-        <v>{{PrefPeríodo}}</v>
+      <c r="D42" s="119" t="s">
+        <v>201</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -4206,8 +4186,8 @@
       <c r="C43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="124" t="s">
-        <v>160</v>
+      <c r="D43" s="121" t="s">
+        <v>159</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
@@ -4218,8 +4198,8 @@
       <c r="C44" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="124" t="s">
-        <v>159</v>
+      <c r="D44" s="121" t="s">
+        <v>158</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -4229,8 +4209,8 @@
       <c r="C46" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="123" t="s">
-        <v>158</v>
+      <c r="D46" s="120" t="s">
+        <v>157</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>32</v>
@@ -4251,8 +4231,8 @@
       <c r="C51" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="122" t="s">
-        <v>157</v>
+      <c r="D51" s="119" t="s">
+        <v>156</v>
       </c>
       <c r="E51" s="84" t="s">
         <v>32</v>
@@ -4263,7 +4243,7 @@
         <v>36</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H52" t="s">
         <v>37</v>
@@ -4290,8 +4270,8 @@
       <c r="C56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="121" t="s">
-        <v>155</v>
+      <c r="D56" s="163" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="3:14">
@@ -4324,15 +4304,15 @@
       <c r="C64" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="120" t="s">
-        <v>155</v>
+      <c r="D64" s="116" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="3:17">
       <c r="C65" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D65" s="117" t="s">
+      <c r="D65" s="116" t="s">
         <v>154</v>
       </c>
       <c r="E65" s="84" t="s">
@@ -4343,7 +4323,7 @@
       <c r="C66" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="119" t="s">
+      <c r="D66" s="118" t="s">
         <v>153</v>
       </c>
       <c r="E66" s="84" t="s">
@@ -4354,7 +4334,7 @@
       <c r="C67" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D67" s="118" t="s">
+      <c r="D67" s="117" t="s">
         <v>152</v>
       </c>
       <c r="E67" t="s">
@@ -4368,7 +4348,7 @@
         <v>49</v>
       </c>
       <c r="D68" s="20"/>
-      <c r="E68" s="116" t="s">
+      <c r="E68" s="115" t="s">
         <v>151</v>
       </c>
       <c r="F68" s="25" t="s">
@@ -4391,7 +4371,7 @@
         <v>52</v>
       </c>
       <c r="D72" s="73"/>
-      <c r="E72" s="114" t="s">
+      <c r="E72" s="113" t="s">
         <v>150</v>
       </c>
       <c r="F72" s="74" t="s">
@@ -4405,7 +4385,7 @@
         <v>54</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="115" t="s">
+      <c r="E73" s="114" t="s">
         <v>149</v>
       </c>
       <c r="F73" s="76" t="s">
@@ -4417,7 +4397,7 @@
         <v>55</v>
       </c>
       <c r="D74" s="78"/>
-      <c r="E74" s="113" t="s">
+      <c r="E74" s="112" t="s">
         <v>148</v>
       </c>
       <c r="F74" s="79" t="s">
@@ -4429,7 +4409,7 @@
         <v>56</v>
       </c>
       <c r="D77" s="73"/>
-      <c r="E77" s="112" t="s">
+      <c r="E77" s="111" t="s">
         <v>147</v>
       </c>
       <c r="F77" s="74" t="s">
@@ -4441,7 +4421,7 @@
         <v>58</v>
       </c>
       <c r="D78" s="3"/>
-      <c r="E78" s="113" t="s">
+      <c r="E78" s="112" t="s">
         <v>146</v>
       </c>
       <c r="F78" s="76" t="s">
@@ -4455,65 +4435,60 @@
       <c r="D79" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E79" s="113" t="s">
+      <c r="E79" s="112" t="s">
         <v>145</v>
       </c>
       <c r="F79" s="79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="3:13">
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="3:13">
       <c r="E83" s="13"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="3:13">
       <c r="C84" s="3"/>
       <c r="D84" s="57"/>
       <c r="F84" s="58"/>
       <c r="L84" s="71"/>
       <c r="M84" s="71"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="3:13">
       <c r="C85" s="84"/>
       <c r="L85" s="71"/>
       <c r="M85" s="71"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="3:13">
       <c r="C86" s="84"/>
       <c r="L86" s="71"/>
       <c r="M86" s="71"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="3:13">
       <c r="C87" s="59"/>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="3:13">
       <c r="C88" s="59"/>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="3:13">
       <c r="C89" s="59"/>
       <c r="D89" s="60"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="3:13">
       <c r="D90" s="53"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="3:13">
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="2:13">
-      <c r="B92" s="107"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="107"/>
-    </row>
-    <row r="93" spans="2:13">
-      <c r="C93" s="107"/>
-    </row>
-    <row r="96" spans="2:13">
+    <row r="92" spans="3:13">
+      <c r="C92" s="108"/>
+      <c r="D92" s="107"/>
+    </row>
+    <row r="96" spans="3:13">
       <c r="H96" s="84"/>
     </row>
     <row r="97" spans="3:8">
@@ -4544,7 +4519,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4558,11 +4533,11 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>259080</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -4582,15 +4557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C20844-8914-4D92-B039-BDC0FF141079}">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="2" spans="2:18">
       <c r="C2" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4599,267 +4574,266 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="2:18" ht="15.75">
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="M3" s="137"/>
+    <row r="3" spans="2:18" ht="15.6">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="M3" s="133"/>
     </row>
     <row r="4" spans="2:18">
-      <c r="N4" s="134" t="s">
+      <c r="N4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" s="134"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="138"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="139" t="s">
+      <c r="F6" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="177" t="s">
+      <c r="G6" s="173"/>
+      <c r="H6" s="136" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="178"/>
-      <c r="H6" s="140" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="140" t="s">
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="M6" s="138" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="M6" s="142" t="s">
+      <c r="O6" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="P6" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="P6" s="140" t="s">
+      <c r="Q6" s="136" t="s">
         <v>170</v>
       </c>
-      <c r="Q6" s="140" t="s">
+    </row>
+    <row r="7" spans="2:18" ht="21">
+      <c r="B7" s="136" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" ht="22.5">
-      <c r="B7" s="140" t="s">
+      <c r="C7" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="143" t="s">
+      <c r="D7" s="136" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="F7" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="136" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="140" t="s">
-        <v>174</v>
-      </c>
-      <c r="F7" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="140" t="s">
+      <c r="M7" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="140" t="s">
+      <c r="N7" s="137"/>
+      <c r="O7" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="140" t="s">
-        <v>172</v>
-      </c>
-      <c r="M7" s="145" t="s">
+      <c r="P7" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="145" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="147"/>
+      <c r="Q9" s="147"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="L10" s="149"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="151" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="149"/>
+      <c r="D11" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="N7" s="141"/>
-      <c r="O7" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="P7" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="140" t="s">
-        <v>178</v>
-      </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="146" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="149" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="149" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="I8" s="150" t="s">
+      <c r="H11" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="146" t="s">
-        <v>185</v>
-      </c>
-      <c r="M8" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="149" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8" s="149" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="149" t="s">
-        <v>187</v>
-      </c>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="146"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="L10" s="153"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="152"/>
-      <c r="O10" s="155" t="s">
-        <v>197</v>
-      </c>
-      <c r="P10" s="155" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q10" s="155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="153"/>
-      <c r="D11" s="154" t="s">
+      <c r="I11" t="s">
         <v>179</v>
       </c>
-      <c r="H11" s="167" t="s">
+      <c r="L11" s="149"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="L12" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="150"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="150"/>
+      <c r="Q12" s="150"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" s="150"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="I11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="153"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="L12" s="156" t="s">
+      <c r="I13" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="M12" s="154"/>
-      <c r="N12" s="152"/>
-      <c r="O12" s="154"/>
-      <c r="Q12" s="154"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="C13" s="154"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="168" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="159" t="s">
+      <c r="M13" s="150"/>
+      <c r="N13" s="148"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="150"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="159"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="C22" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="154"/>
-      <c r="N13" s="152"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="154"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="C21" s="107"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="163"/>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="C22" s="175" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="G22" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="G22" s="175" t="s">
-        <v>184</v>
-      </c>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="181" t="s">
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="174" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" s="170"/>
+      <c r="O22" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="M22" s="175"/>
-      <c r="O22" s="175" t="s">
-        <v>184</v>
-      </c>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="170"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="162"/>
+      <c r="B24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4887,21 +4861,21 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="21" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:11" ht="9" customHeight="1"/>
@@ -4940,10 +4914,10 @@
     </row>
     <row r="16" spans="4:11" ht="25.5" customHeight="1"/>
     <row r="17" spans="5:15" ht="27" customHeight="1">
-      <c r="J17" s="179" t="s">
+      <c r="J17" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="179"/>
+      <c r="K17" s="175"/>
       <c r="L17" s="24" t="s">
         <v>68</v>
       </c>
@@ -4967,11 +4941,11 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="180" t="str">
+      <c r="J19" s="176" t="str">
         <f>+'Fact CPGNA'!E68</f>
         <v>{{CmPrecioPsec}}</v>
       </c>
-      <c r="K19" s="180"/>
+      <c r="K19" s="176"/>
       <c r="L19" s="99" t="e">
         <f>ROUND(+E19*J19,2)</f>
         <v>#VALUE!</v>
@@ -4993,8 +4967,8 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="176"/>
       <c r="L21" s="99"/>
     </row>
     <row r="22" spans="5:15">
@@ -5077,8 +5051,8 @@
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
       <c r="L29" s="26"/>
       <c r="N29" s="7"/>
     </row>
@@ -5088,8 +5062,8 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
       <c r="L30" s="100"/>
       <c r="N30" s="7"/>
     </row>
@@ -5247,7 +5221,7 @@
     <row r="55" spans="3:21">
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="3:21" ht="15.75">
+    <row r="56" spans="3:21" ht="15.6">
       <c r="K56" s="39"/>
       <c r="N56" s="43"/>
       <c r="O56" s="44" t="s">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/mensual/CalculoFacturaCpgnaConFee50.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollos\SP\APSS SP\ProyectoPrincipalAenza7\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppV2\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\mensual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B6F883-F064-4647-BFFD-12250B073416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE8CBE-8C22-43CD-BF0B-485AEDFFEC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="701" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="701" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fact CPGNA" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
-    <sheet name="factura" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="9" r:id="rId3"/>
+    <sheet name="factura" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="\A">#REF!</definedName>
@@ -32,11 +33,11 @@
     <definedName name="\V">#REF!</definedName>
     <definedName name="\W">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fact CPGNA'!$B$2:$K$93</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">factura!$E$10:$L$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">factura!$E$10:$L$53</definedName>
     <definedName name="AREPORTE_DIARI">#REF!</definedName>
     <definedName name="AREPORTE1">#REF!</definedName>
     <definedName name="BALANCE1">#REF!</definedName>
-    <definedName name="BarrilesProducto_Items">Hoja1!$L$8:$Q$9</definedName>
+    <definedName name="BarrilesProducto_Items">Hoja2!$C$8:$H$9</definedName>
     <definedName name="GASEST">#REF!</definedName>
     <definedName name="MARCIANITO">#REF!</definedName>
     <definedName name="MARCIANITO20">#REF!</definedName>
@@ -50,7 +51,18 @@
     <definedName name="ResumenEntrega_Items">Hoja1!$B$8:$I$9</definedName>
     <definedName name="TipoCambio_Items">'Fact CPGNA'!$I$9:$J$10</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2331,7 +2343,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2668,6 +2680,9 @@
     <xf numFmtId="2" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2686,18 +2701,18 @@
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2707,6 +2722,10 @@
     <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="358">
     <cellStyle name="20% - Énfasis1" xfId="52" builtinId="30" customBuiltin="1"/>
@@ -3106,11 +3125,11 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>259080</xdr:colOff>
+          <xdr:colOff>257175</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -3228,7 +3247,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>60430</xdr:rowOff>
+      <xdr:rowOff>98530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3276,25 +3295,30 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171905</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>467180</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>73817</xdr:rowOff>
+      <xdr:rowOff>64292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>356114</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>651389</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152899</xdr:rowOff>
+      <xdr:rowOff>181474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,8 +3339,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7544255" y="73817"/>
-          <a:ext cx="946209" cy="402932"/>
+          <a:off x="467180" y="64292"/>
+          <a:ext cx="946209" cy="441032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,43 +3715,43 @@
   </sheetPr>
   <dimension ref="C2:R99"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:18">
       <c r="N2" s="90"/>
     </row>
     <row r="3" spans="3:18">
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
       <c r="N3" s="88"/>
     </row>
     <row r="4" spans="3:18">
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
       <c r="N4" s="89"/>
     </row>
     <row r="5" spans="3:18">
@@ -3751,19 +3775,19 @@
     </row>
     <row r="8" spans="3:18" ht="12.75" customHeight="1">
       <c r="G8" s="91"/>
-      <c r="I8" s="167" t="s">
+      <c r="I8" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="168"/>
+      <c r="J8" s="169"/>
       <c r="M8" s="82"/>
       <c r="N8" s="7"/>
       <c r="O8" s="83"/>
     </row>
     <row r="9" spans="3:18" ht="13.5" customHeight="1">
-      <c r="C9" s="165" t="s">
+      <c r="C9" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="165"/>
+      <c r="D9" s="166"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
@@ -4103,7 +4127,7 @@
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
     </row>
-    <row r="31" spans="3:18" ht="13.8">
+    <row r="31" spans="3:18" ht="14.25">
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
@@ -4115,14 +4139,14 @@
       <c r="R31" s="55"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="169" t="s">
+      <c r="C32" s="170" t="s">
         <v>160</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="131"/>
       <c r="J32" s="131"/>
       <c r="M32" s="62"/>
@@ -4131,26 +4155,26 @@
       <c r="P32" s="55"/>
     </row>
     <row r="33" spans="3:12">
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
       <c r="I33" s="84"/>
       <c r="J33" s="84"/>
     </row>
     <row r="34" spans="3:12">
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
       <c r="I34" s="84"/>
       <c r="J34" s="84"/>
     </row>
@@ -4519,7 +4543,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -4533,11 +4557,11 @@
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>259080</xdr:colOff>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>40</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -4555,15 +4579,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C20844-8914-4D92-B039-BDC0FF141079}">
-  <dimension ref="B2:R24"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:12">
       <c r="C2" s="3" t="s">
         <v>161</v>
       </c>
@@ -4573,15 +4600,8 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.6">
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="132"/>
       <c r="C3" s="132"/>
       <c r="D3" s="132"/>
@@ -4590,15 +4610,8 @@
       <c r="G3" s="132"/>
       <c r="H3" s="132"/>
       <c r="I3" s="132"/>
-      <c r="M3" s="133"/>
-    </row>
-    <row r="4" spans="2:18">
-      <c r="N4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O4" s="134"/>
-    </row>
-    <row r="6" spans="2:18">
+    </row>
+    <row r="6" spans="2:12">
       <c r="C6" s="171"/>
       <c r="D6" s="171"/>
       <c r="E6" s="135" t="s">
@@ -4616,20 +4629,8 @@
       </c>
       <c r="J6" s="137"/>
       <c r="K6" s="137"/>
-      <c r="M6" s="138" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="P6" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q6" s="136" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="21">
+    </row>
+    <row r="7" spans="2:12" ht="22.5">
       <c r="B7" s="136" t="s">
         <v>171</v>
       </c>
@@ -4656,25 +4657,9 @@
       </c>
       <c r="J7" s="137"/>
       <c r="K7" s="137"/>
-      <c r="L7" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" s="141" t="s">
-        <v>177</v>
-      </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="P7" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" s="142" t="s">
         <v>184</v>
       </c>
@@ -4701,25 +4686,9 @@
       </c>
       <c r="J8" s="137"/>
       <c r="K8" s="137"/>
-      <c r="L8" s="142" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="145" t="s">
-        <v>198</v>
-      </c>
-      <c r="P8" s="145" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="142"/>
       <c r="C9" s="143"/>
       <c r="D9" s="144"/>
@@ -4730,28 +4699,8 @@
       <c r="I9" s="146"/>
       <c r="J9" s="137"/>
       <c r="K9" s="137"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="147"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="151" t="s">
-        <v>196</v>
-      </c>
-      <c r="P10" s="151" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q10" s="151" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18">
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="149"/>
       <c r="D11" s="150" t="s">
         <v>178</v>
@@ -4762,14 +4711,8 @@
       <c r="I11" t="s">
         <v>179</v>
       </c>
-      <c r="L11" s="149"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-    </row>
-    <row r="12" spans="2:18">
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="149"/>
       <c r="C12" s="150"/>
       <c r="D12" s="150"/>
@@ -4777,15 +4720,8 @@
       <c r="F12" s="150"/>
       <c r="G12" s="150"/>
       <c r="H12" s="150"/>
-      <c r="L12" s="152" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" s="150"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="150"/>
-      <c r="Q12" s="150"/>
-    </row>
-    <row r="13" spans="2:18">
+    </row>
+    <row r="13" spans="2:12">
       <c r="C13" s="150"/>
       <c r="D13" s="154"/>
       <c r="E13" s="153"/>
@@ -4797,56 +4733,37 @@
       <c r="I13" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="148"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="150"/>
-    </row>
-    <row r="21" spans="2:17">
+    </row>
+    <row r="21" spans="2:11">
       <c r="G21" s="157"/>
       <c r="H21" s="157"/>
       <c r="I21" s="157"/>
       <c r="J21" s="159"/>
     </row>
-    <row r="22" spans="2:17">
-      <c r="C22" s="170" t="s">
+    <row r="22" spans="2:11">
+      <c r="C22" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="G22" s="170" t="s">
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="G22" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
       <c r="J22" s="1"/>
       <c r="K22" s="162"/>
-      <c r="L22" s="174" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="170"/>
-      <c r="O22" s="170" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-    </row>
-    <row r="24" spans="2:17">
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O22:Q22"/>
+  <mergeCells count="4">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="L22:M22"/>
   </mergeCells>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4854,6 +4771,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC1B209-5032-48AE-A944-009CD8A7EBA9}">
+  <dimension ref="B2:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="D2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75">
+      <c r="D3" s="133"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="E4" s="164" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="134"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="137"/>
+      <c r="D6" s="138" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="136" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="137"/>
+      <c r="C7" s="136" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="137"/>
+      <c r="F7" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="137"/>
+      <c r="C8" s="142" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="145" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="137"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="C10" s="149"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="C12" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="150"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="150"/>
+      <c r="H12" s="150"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="150"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="162"/>
+      <c r="C22" s="175" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="174"/>
+      <c r="F22" s="178" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:H22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:U134"/>
   <sheetViews>
@@ -4861,21 +4941,21 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="21" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:11" ht="9" customHeight="1"/>
@@ -4914,10 +4994,10 @@
     </row>
     <row r="16" spans="4:11" ht="25.5" customHeight="1"/>
     <row r="17" spans="5:15" ht="27" customHeight="1">
-      <c r="J17" s="175" t="s">
+      <c r="J17" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="175"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="24" t="s">
         <v>68</v>
       </c>
@@ -4941,11 +5021,11 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="176" t="str">
+      <c r="J19" s="177" t="str">
         <f>+'Fact CPGNA'!E68</f>
         <v>{{CmPrecioPsec}}</v>
       </c>
-      <c r="K19" s="176"/>
+      <c r="K19" s="177"/>
       <c r="L19" s="99" t="e">
         <f>ROUND(+E19*J19,2)</f>
         <v>#VALUE!</v>
@@ -4967,8 +5047,8 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
       <c r="L21" s="99"/>
     </row>
     <row r="22" spans="5:15">
@@ -5051,8 +5131,8 @@
       <c r="G29" s="34"/>
       <c r="H29" s="35"/>
       <c r="I29" s="36"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
       <c r="L29" s="26"/>
       <c r="N29" s="7"/>
     </row>
@@ -5062,8 +5142,8 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
       <c r="L30" s="100"/>
       <c r="N30" s="7"/>
     </row>
@@ -5221,7 +5301,7 @@
     <row r="55" spans="3:21">
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="3:21" ht="15.6">
+    <row r="56" spans="3:21" ht="15.75">
       <c r="K56" s="39"/>
       <c r="N56" s="43"/>
       <c r="O56" s="44" t="s">
@@ -6430,45 +6510,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Organizacion xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">ENEL</Organizacion>
-    <Tipo_x0020_Auditoria xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Contraprestación ENEL</Tipo_x0020_Auditoria>
-    <TaxCatchAll xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Value>24</Value>
-      <Value>48</Value>
-    </TaxCatchAll>
-    <mc2ce51dacb94f6bb557174edb7a5e78 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">46694912-6763-4975-9fd9-c77e0dec2cab</TermId>
-        </TermInfo>
-      </Terms>
-    </mc2ce51dacb94f6bb557174edb7a5e78>
-    <o8e2700eeee4411fa2022dc950eab810 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Agosto</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8293fe82-d099-439f-94cb-06d5159728f8</TermId>
-        </TermInfo>
-      </Terms>
-    </o8e2700eeee4411fa2022dc950eab810>
-    <Auditoría xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Documentos Mensuales ENEL</Auditoría>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Proceso" ma:contentTypeID="0x010100D161328C4CF32444B4DE139121D8DE5300467F84FB5DF4654FA6987AFE6EF80A25" ma:contentTypeVersion="12" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="9bb515c4dce2649fb18d4a58e4a0061d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f" xmlns:ns3="ef91d8dc-f46d-44cd-a575-8661b4cef94d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="661945d0f72ea79a21c93577ebd50501" ns2:_="" ns3:_="">
     <xsd:import namespace="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
@@ -6702,32 +6743,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E5FBB0-2BF7-47BA-93B4-8BCCB17B4A48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2122C46F-BE4A-408F-90D1-8534F571971D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef91d8dc-f46d-44cd-a575-8661b4cef94d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Organizacion xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">ENEL</Organizacion>
+    <Tipo_x0020_Auditoria xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Contraprestación ENEL</Tipo_x0020_Auditoria>
+    <TaxCatchAll xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Value>24</Value>
+      <Value>48</Value>
+    </TaxCatchAll>
+    <mc2ce51dacb94f6bb557174edb7a5e78 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2023</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">46694912-6763-4975-9fd9-c77e0dec2cab</TermId>
+        </TermInfo>
+      </Terms>
+    </mc2ce51dacb94f6bb557174edb7a5e78>
+    <o8e2700eeee4411fa2022dc950eab810 xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Agosto</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">8293fe82-d099-439f-94cb-06d5159728f8</TermId>
+        </TermInfo>
+      </Terms>
+    </o8e2700eeee4411fa2022dc950eab810>
+    <Auditoría xmlns="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f">Documentos Mensuales ENEL</Auditoría>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55A0763-6430-4A4D-B6B1-15B4D947EEFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6746,6 +6801,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04E5FBB0-2BF7-47BA-93B4-8BCCB17B4A48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2122C46F-BE4A-408F-90D1-8534F571971D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="5bd77e89-8cc9-469c-8406-c2d9f8eb3a4f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef91d8dc-f46d-44cd-a575-8661b4cef94d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{65bb3aad-376d-42f5-83f9-9beaea39fdc4}" enabled="0" method="" siteId="{65bb3aad-376d-42f5-83f9-9beaea39fdc4}" removed="1"/>
